--- a/project-management-template.xlsx
+++ b/project-management-template.xlsx
@@ -20,18 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;component&gt;</t>
+    <t xml:space="preserve">Implementation Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Project Plan</t>
+    <t xml:space="preserve">Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Plan and Terllo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
   </si>
   <si>
     <t xml:space="preserve">CI: Set Up Azure Cloud Shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
   </si>
   <si>
     <t xml:space="preserve">Create Project Scaffolding</t>
@@ -46,10 +55,52 @@
     <t xml:space="preserve">Verify Remote Tests pass</t>
   </si>
   <si>
-    <t xml:space="preserve">Continuous Delivery on Azure</t>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Continuous Delivery on Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Continuous Delivery on Azure</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps Success </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Video</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Goals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarter 4 Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changes based on the Project Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improvement in the CI CD pipeline</t>
   </si>
 </sst>
 </file>
@@ -60,7 +111,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -110,6 +161,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -166,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,6 +249,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -288,13 +349,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
   </cols>
@@ -306,7 +367,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -333,12 +396,14 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>44105</v>
+        <v>44479</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -365,12 +430,14 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>44112</v>
+        <v>44486</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -397,12 +464,14 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>44119</v>
+        <v>44493</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -429,12 +498,14 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>44126</v>
+        <v>44500</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -461,12 +532,14 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>44133</v>
+        <v>44507</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -493,12 +566,14 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>44140</v>
+        <v>44514</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -525,12 +600,14 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>44147</v>
+        <v>44521</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -557,10 +634,14 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>44154</v>
+        <v>44528</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -585,12 +666,16 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>44161</v>
+        <v>44535</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -616,9 +701,7 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>44168</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -646,9 +729,7 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>44175</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -676,9 +757,7 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>44182</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -706,40 +785,42 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>9</v>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -766,7 +847,7 @@
       <c r="Z15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -793,9 +874,13 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="6"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -822,7 +907,7 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -849,9 +934,13 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -878,7 +967,7 @@
       <c r="Z19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -906,7 +995,7 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -934,7 +1023,7 @@
       <c r="Z21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -962,7 +1051,7 @@
       <c r="Z22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -990,7 +1079,7 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1018,7 +1107,7 @@
       <c r="Z24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1046,7 +1135,7 @@
       <c r="Z25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1074,7 +1163,7 @@
       <c r="Z26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1102,7 +1191,7 @@
       <c r="Z27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1130,7 +1219,7 @@
       <c r="Z28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1158,7 +1247,7 @@
       <c r="Z29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1186,7 +1275,7 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1214,7 +1303,7 @@
       <c r="Z31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1242,7 +1331,7 @@
       <c r="Z32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1270,7 +1359,7 @@
       <c r="Z33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1298,7 +1387,7 @@
       <c r="Z34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1326,7 +1415,7 @@
       <c r="Z35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1354,7 +1443,7 @@
       <c r="Z36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1382,7 +1471,7 @@
       <c r="Z37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1410,7 +1499,7 @@
       <c r="Z38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1438,7 +1527,7 @@
       <c r="Z39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1466,7 +1555,7 @@
       <c r="Z40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1494,7 +1583,7 @@
       <c r="Z41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1522,7 +1611,7 @@
       <c r="Z42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1550,7 +1639,7 @@
       <c r="Z43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1578,7 +1667,7 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1606,7 +1695,7 @@
       <c r="Z45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1634,7 +1723,7 @@
       <c r="Z46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1662,7 +1751,7 @@
       <c r="Z47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1690,7 +1779,7 @@
       <c r="Z48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1718,7 +1807,7 @@
       <c r="Z49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -1746,7 +1835,7 @@
       <c r="Z50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1774,7 +1863,7 @@
       <c r="Z51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1802,7 +1891,7 @@
       <c r="Z52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1830,7 +1919,7 @@
       <c r="Z53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1858,7 +1947,7 @@
       <c r="Z54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1886,7 +1975,7 @@
       <c r="Z55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1914,7 +2003,7 @@
       <c r="Z56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1942,7 +2031,7 @@
       <c r="Z57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1970,7 +2059,7 @@
       <c r="Z58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1998,7 +2087,7 @@
       <c r="Z59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -2026,7 +2115,7 @@
       <c r="Z60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2054,7 +2143,7 @@
       <c r="Z61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2082,7 +2171,7 @@
       <c r="Z62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2110,7 +2199,7 @@
       <c r="Z63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2138,7 +2227,7 @@
       <c r="Z64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2166,7 +2255,7 @@
       <c r="Z65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2194,7 +2283,7 @@
       <c r="Z66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -2222,7 +2311,7 @@
       <c r="Z67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -2250,7 +2339,7 @@
       <c r="Z68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2278,7 +2367,7 @@
       <c r="Z69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2306,7 +2395,7 @@
       <c r="Z70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2334,7 +2423,7 @@
       <c r="Z71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2362,7 +2451,7 @@
       <c r="Z72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2390,7 +2479,7 @@
       <c r="Z73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2418,7 +2507,7 @@
       <c r="Z74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2446,7 +2535,7 @@
       <c r="Z75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10"/>
+      <c r="A76" s="11"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2474,7 +2563,7 @@
       <c r="Z76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2502,7 +2591,7 @@
       <c r="Z77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2530,7 +2619,7 @@
       <c r="Z78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2558,7 +2647,7 @@
       <c r="Z79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10"/>
+      <c r="A80" s="11"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2586,7 +2675,7 @@
       <c r="Z80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2614,7 +2703,7 @@
       <c r="Z81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2642,7 +2731,7 @@
       <c r="Z82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2670,7 +2759,7 @@
       <c r="Z83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2698,7 +2787,7 @@
       <c r="Z84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2726,7 +2815,7 @@
       <c r="Z85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10"/>
+      <c r="A86" s="11"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2754,7 +2843,7 @@
       <c r="Z86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10"/>
+      <c r="A87" s="11"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2782,7 +2871,7 @@
       <c r="Z87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10"/>
+      <c r="A88" s="11"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2810,7 +2899,7 @@
       <c r="Z88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10"/>
+      <c r="A89" s="11"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2838,7 +2927,7 @@
       <c r="Z89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10"/>
+      <c r="A90" s="11"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2866,7 +2955,7 @@
       <c r="Z90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10"/>
+      <c r="A91" s="11"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2894,7 +2983,7 @@
       <c r="Z91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="10"/>
+      <c r="A92" s="11"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2922,7 +3011,7 @@
       <c r="Z92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10"/>
+      <c r="A93" s="11"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2950,7 +3039,7 @@
       <c r="Z93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10"/>
+      <c r="A94" s="11"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2978,7 +3067,7 @@
       <c r="Z94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10"/>
+      <c r="A95" s="11"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3006,7 +3095,7 @@
       <c r="Z95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10"/>
+      <c r="A96" s="11"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3034,7 +3123,7 @@
       <c r="Z96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10"/>
+      <c r="A97" s="11"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3062,7 +3151,7 @@
       <c r="Z97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10"/>
+      <c r="A98" s="11"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3090,7 +3179,7 @@
       <c r="Z98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10"/>
+      <c r="A99" s="11"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3118,7 +3207,7 @@
       <c r="Z99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10"/>
+      <c r="A100" s="11"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3146,7 +3235,7 @@
       <c r="Z100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10"/>
+      <c r="A101" s="11"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3174,7 +3263,7 @@
       <c r="Z101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="10"/>
+      <c r="A102" s="11"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3202,7 +3291,7 @@
       <c r="Z102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10"/>
+      <c r="A103" s="11"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3230,7 +3319,7 @@
       <c r="Z103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10"/>
+      <c r="A104" s="11"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3258,7 +3347,7 @@
       <c r="Z104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="10"/>
+      <c r="A105" s="11"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3286,7 +3375,7 @@
       <c r="Z105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="10"/>
+      <c r="A106" s="11"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3314,7 +3403,7 @@
       <c r="Z106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10"/>
+      <c r="A107" s="11"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3342,7 +3431,7 @@
       <c r="Z107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10"/>
+      <c r="A108" s="11"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3370,7 +3459,7 @@
       <c r="Z108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10"/>
+      <c r="A109" s="11"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3398,7 +3487,7 @@
       <c r="Z109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10"/>
+      <c r="A110" s="11"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3426,7 +3515,7 @@
       <c r="Z110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10"/>
+      <c r="A111" s="11"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3454,7 +3543,7 @@
       <c r="Z111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10"/>
+      <c r="A112" s="11"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3482,7 +3571,7 @@
       <c r="Z112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10"/>
+      <c r="A113" s="11"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3510,7 +3599,7 @@
       <c r="Z113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10"/>
+      <c r="A114" s="11"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3538,7 +3627,7 @@
       <c r="Z114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10"/>
+      <c r="A115" s="11"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3566,7 +3655,7 @@
       <c r="Z115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="10"/>
+      <c r="A116" s="11"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3594,7 +3683,7 @@
       <c r="Z116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10"/>
+      <c r="A117" s="11"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3622,7 +3711,7 @@
       <c r="Z117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10"/>
+      <c r="A118" s="11"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3650,7 +3739,7 @@
       <c r="Z118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10"/>
+      <c r="A119" s="11"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3678,7 +3767,7 @@
       <c r="Z119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10"/>
+      <c r="A120" s="11"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -3706,7 +3795,7 @@
       <c r="Z120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10"/>
+      <c r="A121" s="11"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3734,7 +3823,7 @@
       <c r="Z121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10"/>
+      <c r="A122" s="11"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3762,7 +3851,7 @@
       <c r="Z122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10"/>
+      <c r="A123" s="11"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3790,7 +3879,7 @@
       <c r="Z123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10"/>
+      <c r="A124" s="11"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3818,7 +3907,7 @@
       <c r="Z124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="10"/>
+      <c r="A125" s="11"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3846,7 +3935,7 @@
       <c r="Z125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10"/>
+      <c r="A126" s="11"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3874,7 +3963,7 @@
       <c r="Z126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10"/>
+      <c r="A127" s="11"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -3902,7 +3991,7 @@
       <c r="Z127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="10"/>
+      <c r="A128" s="11"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -3930,7 +4019,7 @@
       <c r="Z128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10"/>
+      <c r="A129" s="11"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3958,7 +4047,7 @@
       <c r="Z129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="10"/>
+      <c r="A130" s="11"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -3986,7 +4075,7 @@
       <c r="Z130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10"/>
+      <c r="A131" s="11"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -4014,7 +4103,7 @@
       <c r="Z131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10"/>
+      <c r="A132" s="11"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -4042,7 +4131,7 @@
       <c r="Z132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10"/>
+      <c r="A133" s="11"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4070,7 +4159,7 @@
       <c r="Z133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="10"/>
+      <c r="A134" s="11"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -4098,7 +4187,7 @@
       <c r="Z134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="10"/>
+      <c r="A135" s="11"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -4126,7 +4215,7 @@
       <c r="Z135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="10"/>
+      <c r="A136" s="11"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4154,7 +4243,7 @@
       <c r="Z136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="10"/>
+      <c r="A137" s="11"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4182,7 +4271,7 @@
       <c r="Z137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="10"/>
+      <c r="A138" s="11"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -4210,7 +4299,7 @@
       <c r="Z138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="10"/>
+      <c r="A139" s="11"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4238,7 +4327,7 @@
       <c r="Z139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="10"/>
+      <c r="A140" s="11"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4266,7 +4355,7 @@
       <c r="Z140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10"/>
+      <c r="A141" s="11"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4294,7 +4383,7 @@
       <c r="Z141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10"/>
+      <c r="A142" s="11"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4322,7 +4411,7 @@
       <c r="Z142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10"/>
+      <c r="A143" s="11"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -4350,7 +4439,7 @@
       <c r="Z143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10"/>
+      <c r="A144" s="11"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -4378,7 +4467,7 @@
       <c r="Z144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10"/>
+      <c r="A145" s="11"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -4406,7 +4495,7 @@
       <c r="Z145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10"/>
+      <c r="A146" s="11"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -4434,7 +4523,7 @@
       <c r="Z146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10"/>
+      <c r="A147" s="11"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -4462,7 +4551,7 @@
       <c r="Z147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="10"/>
+      <c r="A148" s="11"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -4490,7 +4579,7 @@
       <c r="Z148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="10"/>
+      <c r="A149" s="11"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -4518,7 +4607,7 @@
       <c r="Z149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="10"/>
+      <c r="A150" s="11"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -4546,7 +4635,7 @@
       <c r="Z150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="10"/>
+      <c r="A151" s="11"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -4574,7 +4663,7 @@
       <c r="Z151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="10"/>
+      <c r="A152" s="11"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -4602,7 +4691,7 @@
       <c r="Z152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="10"/>
+      <c r="A153" s="11"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -4630,7 +4719,7 @@
       <c r="Z153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="10"/>
+      <c r="A154" s="11"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -4658,7 +4747,7 @@
       <c r="Z154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="10"/>
+      <c r="A155" s="11"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -4686,7 +4775,7 @@
       <c r="Z155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="10"/>
+      <c r="A156" s="11"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -4714,7 +4803,7 @@
       <c r="Z156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="10"/>
+      <c r="A157" s="11"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -4742,7 +4831,7 @@
       <c r="Z157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="10"/>
+      <c r="A158" s="11"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -4770,7 +4859,7 @@
       <c r="Z158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="10"/>
+      <c r="A159" s="11"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -4798,7 +4887,7 @@
       <c r="Z159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="10"/>
+      <c r="A160" s="11"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -4826,7 +4915,7 @@
       <c r="Z160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="10"/>
+      <c r="A161" s="11"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -4854,7 +4943,7 @@
       <c r="Z161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="10"/>
+      <c r="A162" s="11"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -4882,7 +4971,7 @@
       <c r="Z162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="10"/>
+      <c r="A163" s="11"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -4910,7 +4999,7 @@
       <c r="Z163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="10"/>
+      <c r="A164" s="11"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -4938,7 +5027,7 @@
       <c r="Z164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="10"/>
+      <c r="A165" s="11"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -4966,7 +5055,7 @@
       <c r="Z165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="10"/>
+      <c r="A166" s="11"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -4994,7 +5083,7 @@
       <c r="Z166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="10"/>
+      <c r="A167" s="11"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -5022,7 +5111,7 @@
       <c r="Z167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="10"/>
+      <c r="A168" s="11"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -5050,7 +5139,7 @@
       <c r="Z168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="10"/>
+      <c r="A169" s="11"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -5078,7 +5167,7 @@
       <c r="Z169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="10"/>
+      <c r="A170" s="11"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -5106,7 +5195,7 @@
       <c r="Z170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="10"/>
+      <c r="A171" s="11"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -5134,7 +5223,7 @@
       <c r="Z171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="10"/>
+      <c r="A172" s="11"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -5162,7 +5251,7 @@
       <c r="Z172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="10"/>
+      <c r="A173" s="11"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -5190,7 +5279,7 @@
       <c r="Z173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="10"/>
+      <c r="A174" s="11"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -5218,7 +5307,7 @@
       <c r="Z174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="10"/>
+      <c r="A175" s="11"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -5246,7 +5335,7 @@
       <c r="Z175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="10"/>
+      <c r="A176" s="11"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -5274,7 +5363,7 @@
       <c r="Z176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="10"/>
+      <c r="A177" s="11"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -5302,7 +5391,7 @@
       <c r="Z177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="10"/>
+      <c r="A178" s="11"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -5330,7 +5419,7 @@
       <c r="Z178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="10"/>
+      <c r="A179" s="11"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -5358,7 +5447,7 @@
       <c r="Z179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="10"/>
+      <c r="A180" s="11"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -5386,7 +5475,7 @@
       <c r="Z180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="10"/>
+      <c r="A181" s="11"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -5414,7 +5503,7 @@
       <c r="Z181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="10"/>
+      <c r="A182" s="11"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -5442,7 +5531,7 @@
       <c r="Z182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="10"/>
+      <c r="A183" s="11"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -5470,7 +5559,7 @@
       <c r="Z183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="10"/>
+      <c r="A184" s="11"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -5498,7 +5587,7 @@
       <c r="Z184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="10"/>
+      <c r="A185" s="11"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -5526,7 +5615,7 @@
       <c r="Z185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="10"/>
+      <c r="A186" s="11"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -5554,7 +5643,7 @@
       <c r="Z186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="10"/>
+      <c r="A187" s="11"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -5582,7 +5671,7 @@
       <c r="Z187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="10"/>
+      <c r="A188" s="11"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -5610,7 +5699,7 @@
       <c r="Z188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="10"/>
+      <c r="A189" s="11"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -5638,7 +5727,7 @@
       <c r="Z189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="10"/>
+      <c r="A190" s="11"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -5666,7 +5755,7 @@
       <c r="Z190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10"/>
+      <c r="A191" s="11"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -5694,7 +5783,7 @@
       <c r="Z191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10"/>
+      <c r="A192" s="11"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -5722,7 +5811,7 @@
       <c r="Z192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="10"/>
+      <c r="A193" s="11"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
@@ -5750,7 +5839,7 @@
       <c r="Z193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="10"/>
+      <c r="A194" s="11"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
@@ -5778,7 +5867,7 @@
       <c r="Z194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10"/>
+      <c r="A195" s="11"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -5806,7 +5895,7 @@
       <c r="Z195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10"/>
+      <c r="A196" s="11"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -5834,7 +5923,7 @@
       <c r="Z196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="10"/>
+      <c r="A197" s="11"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -5862,7 +5951,7 @@
       <c r="Z197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="10"/>
+      <c r="A198" s="11"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -5890,7 +5979,7 @@
       <c r="Z198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="10"/>
+      <c r="A199" s="11"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -5918,7 +6007,7 @@
       <c r="Z199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="10"/>
+      <c r="A200" s="11"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -5946,7 +6035,7 @@
       <c r="Z200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="10"/>
+      <c r="A201" s="11"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -5974,7 +6063,7 @@
       <c r="Z201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="10"/>
+      <c r="A202" s="11"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -6002,7 +6091,7 @@
       <c r="Z202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="10"/>
+      <c r="A203" s="11"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -6030,7 +6119,7 @@
       <c r="Z203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="10"/>
+      <c r="A204" s="11"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -6058,7 +6147,7 @@
       <c r="Z204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="10"/>
+      <c r="A205" s="11"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -6086,7 +6175,7 @@
       <c r="Z205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="10"/>
+      <c r="A206" s="11"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -6114,7 +6203,7 @@
       <c r="Z206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="10"/>
+      <c r="A207" s="11"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -6142,7 +6231,7 @@
       <c r="Z207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="10"/>
+      <c r="A208" s="11"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -6170,7 +6259,7 @@
       <c r="Z208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="10"/>
+      <c r="A209" s="11"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -6198,7 +6287,7 @@
       <c r="Z209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="10"/>
+      <c r="A210" s="11"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -6226,7 +6315,7 @@
       <c r="Z210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="10"/>
+      <c r="A211" s="11"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -6254,7 +6343,7 @@
       <c r="Z211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="10"/>
+      <c r="A212" s="11"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
@@ -6282,7 +6371,7 @@
       <c r="Z212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="10"/>
+      <c r="A213" s="11"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
@@ -6310,7 +6399,7 @@
       <c r="Z213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="10"/>
+      <c r="A214" s="11"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
@@ -6338,7 +6427,7 @@
       <c r="Z214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="10"/>
+      <c r="A215" s="11"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -6366,7 +6455,7 @@
       <c r="Z215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="10"/>
+      <c r="A216" s="11"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -6394,7 +6483,7 @@
       <c r="Z216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="10"/>
+      <c r="A217" s="11"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -6422,7 +6511,7 @@
       <c r="Z217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="10"/>
+      <c r="A218" s="11"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -6450,7 +6539,7 @@
       <c r="Z218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="10"/>
+      <c r="A219" s="11"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -6478,7 +6567,7 @@
       <c r="Z219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="10"/>
+      <c r="A220" s="11"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -6506,7 +6595,7 @@
       <c r="Z220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="10"/>
+      <c r="A221" s="11"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -6534,7 +6623,7 @@
       <c r="Z221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="10"/>
+      <c r="A222" s="11"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -6562,7 +6651,7 @@
       <c r="Z222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="10"/>
+      <c r="A223" s="11"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -6590,7 +6679,7 @@
       <c r="Z223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="10"/>
+      <c r="A224" s="11"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -6618,7 +6707,7 @@
       <c r="Z224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="10"/>
+      <c r="A225" s="11"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -6646,7 +6735,7 @@
       <c r="Z225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="10"/>
+      <c r="A226" s="11"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -6674,7 +6763,7 @@
       <c r="Z226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="10"/>
+      <c r="A227" s="11"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -6702,7 +6791,7 @@
       <c r="Z227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="10"/>
+      <c r="A228" s="11"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -6730,7 +6819,7 @@
       <c r="Z228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="10"/>
+      <c r="A229" s="11"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -6758,7 +6847,7 @@
       <c r="Z229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="10"/>
+      <c r="A230" s="11"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
@@ -6786,7 +6875,7 @@
       <c r="Z230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="10"/>
+      <c r="A231" s="11"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -6814,7 +6903,7 @@
       <c r="Z231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="10"/>
+      <c r="A232" s="11"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -6842,7 +6931,7 @@
       <c r="Z232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="10"/>
+      <c r="A233" s="11"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
@@ -6870,7 +6959,7 @@
       <c r="Z233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="10"/>
+      <c r="A234" s="11"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -6898,7 +6987,7 @@
       <c r="Z234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="10"/>
+      <c r="A235" s="11"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -6926,7 +7015,7 @@
       <c r="Z235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="10"/>
+      <c r="A236" s="11"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -6954,7 +7043,7 @@
       <c r="Z236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="10"/>
+      <c r="A237" s="11"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -6982,7 +7071,7 @@
       <c r="Z237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="10"/>
+      <c r="A238" s="11"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -7010,7 +7099,7 @@
       <c r="Z238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="10"/>
+      <c r="A239" s="11"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -7038,7 +7127,7 @@
       <c r="Z239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="10"/>
+      <c r="A240" s="11"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -7066,7 +7155,7 @@
       <c r="Z240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="10"/>
+      <c r="A241" s="11"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
@@ -7094,7 +7183,7 @@
       <c r="Z241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="10"/>
+      <c r="A242" s="11"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -7122,7 +7211,7 @@
       <c r="Z242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="10"/>
+      <c r="A243" s="11"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -7150,7 +7239,7 @@
       <c r="Z243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="10"/>
+      <c r="A244" s="11"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
@@ -7178,7 +7267,7 @@
       <c r="Z244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="10"/>
+      <c r="A245" s="11"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -7206,7 +7295,7 @@
       <c r="Z245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="10"/>
+      <c r="A246" s="11"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -7234,7 +7323,7 @@
       <c r="Z246" s="6"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="10"/>
+      <c r="A247" s="11"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -7262,7 +7351,7 @@
       <c r="Z247" s="6"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="10"/>
+      <c r="A248" s="11"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
@@ -7290,7 +7379,7 @@
       <c r="Z248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="10"/>
+      <c r="A249" s="11"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
@@ -7318,7 +7407,7 @@
       <c r="Z249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="10"/>
+      <c r="A250" s="11"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
@@ -7346,7 +7435,7 @@
       <c r="Z250" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="10"/>
+      <c r="A251" s="11"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
@@ -7374,7 +7463,7 @@
       <c r="Z251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="10"/>
+      <c r="A252" s="11"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
@@ -7402,7 +7491,7 @@
       <c r="Z252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="10"/>
+      <c r="A253" s="11"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
@@ -7430,7 +7519,7 @@
       <c r="Z253" s="6"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="10"/>
+      <c r="A254" s="11"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
@@ -7458,7 +7547,7 @@
       <c r="Z254" s="6"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="10"/>
+      <c r="A255" s="11"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
@@ -7486,7 +7575,7 @@
       <c r="Z255" s="6"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="10"/>
+      <c r="A256" s="11"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
@@ -7514,7 +7603,7 @@
       <c r="Z256" s="6"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="10"/>
+      <c r="A257" s="11"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -7542,7 +7631,7 @@
       <c r="Z257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="10"/>
+      <c r="A258" s="11"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
@@ -7570,7 +7659,7 @@
       <c r="Z258" s="6"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="10"/>
+      <c r="A259" s="11"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
@@ -7598,7 +7687,7 @@
       <c r="Z259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="10"/>
+      <c r="A260" s="11"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
@@ -7626,7 +7715,7 @@
       <c r="Z260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="10"/>
+      <c r="A261" s="11"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
@@ -7654,7 +7743,7 @@
       <c r="Z261" s="6"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="10"/>
+      <c r="A262" s="11"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
@@ -7682,7 +7771,7 @@
       <c r="Z262" s="6"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="10"/>
+      <c r="A263" s="11"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
@@ -7710,7 +7799,7 @@
       <c r="Z263" s="6"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="10"/>
+      <c r="A264" s="11"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
@@ -7738,7 +7827,7 @@
       <c r="Z264" s="6"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="10"/>
+      <c r="A265" s="11"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
@@ -7766,7 +7855,7 @@
       <c r="Z265" s="6"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="10"/>
+      <c r="A266" s="11"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
@@ -7794,7 +7883,7 @@
       <c r="Z266" s="6"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="10"/>
+      <c r="A267" s="11"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
@@ -7822,7 +7911,7 @@
       <c r="Z267" s="6"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="10"/>
+      <c r="A268" s="11"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
@@ -7850,7 +7939,7 @@
       <c r="Z268" s="6"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="10"/>
+      <c r="A269" s="11"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
@@ -7878,7 +7967,7 @@
       <c r="Z269" s="6"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="10"/>
+      <c r="A270" s="11"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
@@ -7906,7 +7995,7 @@
       <c r="Z270" s="6"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="10"/>
+      <c r="A271" s="11"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
@@ -7934,7 +8023,7 @@
       <c r="Z271" s="6"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="10"/>
+      <c r="A272" s="11"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
@@ -7962,7 +8051,7 @@
       <c r="Z272" s="6"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="10"/>
+      <c r="A273" s="11"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
@@ -7990,7 +8079,7 @@
       <c r="Z273" s="6"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="10"/>
+      <c r="A274" s="11"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
@@ -8018,7 +8107,7 @@
       <c r="Z274" s="6"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="10"/>
+      <c r="A275" s="11"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
@@ -8046,7 +8135,7 @@
       <c r="Z275" s="6"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="10"/>
+      <c r="A276" s="11"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
@@ -8074,7 +8163,7 @@
       <c r="Z276" s="6"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="10"/>
+      <c r="A277" s="11"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
@@ -8102,7 +8191,7 @@
       <c r="Z277" s="6"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="10"/>
+      <c r="A278" s="11"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
@@ -8130,7 +8219,7 @@
       <c r="Z278" s="6"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="10"/>
+      <c r="A279" s="11"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
       <c r="D279" s="6"/>
@@ -8158,7 +8247,7 @@
       <c r="Z279" s="6"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="10"/>
+      <c r="A280" s="11"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
@@ -8186,7 +8275,7 @@
       <c r="Z280" s="6"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="10"/>
+      <c r="A281" s="11"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
@@ -8214,7 +8303,7 @@
       <c r="Z281" s="6"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="10"/>
+      <c r="A282" s="11"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
@@ -8242,7 +8331,7 @@
       <c r="Z282" s="6"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="10"/>
+      <c r="A283" s="11"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
@@ -8270,7 +8359,7 @@
       <c r="Z283" s="6"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="10"/>
+      <c r="A284" s="11"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
@@ -8298,7 +8387,7 @@
       <c r="Z284" s="6"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="10"/>
+      <c r="A285" s="11"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
@@ -8326,7 +8415,7 @@
       <c r="Z285" s="6"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="10"/>
+      <c r="A286" s="11"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
@@ -8354,7 +8443,7 @@
       <c r="Z286" s="6"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="10"/>
+      <c r="A287" s="11"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
@@ -8382,7 +8471,7 @@
       <c r="Z287" s="6"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="10"/>
+      <c r="A288" s="11"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
@@ -8410,7 +8499,7 @@
       <c r="Z288" s="6"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="10"/>
+      <c r="A289" s="11"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
@@ -8438,7 +8527,7 @@
       <c r="Z289" s="6"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="10"/>
+      <c r="A290" s="11"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
@@ -8466,7 +8555,7 @@
       <c r="Z290" s="6"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="10"/>
+      <c r="A291" s="11"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
       <c r="D291" s="6"/>
@@ -8494,7 +8583,7 @@
       <c r="Z291" s="6"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="10"/>
+      <c r="A292" s="11"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
@@ -8522,7 +8611,7 @@
       <c r="Z292" s="6"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="10"/>
+      <c r="A293" s="11"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
@@ -8550,7 +8639,7 @@
       <c r="Z293" s="6"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="10"/>
+      <c r="A294" s="11"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
@@ -8578,7 +8667,7 @@
       <c r="Z294" s="6"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="10"/>
+      <c r="A295" s="11"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
@@ -8606,7 +8695,7 @@
       <c r="Z295" s="6"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="10"/>
+      <c r="A296" s="11"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
@@ -8634,7 +8723,7 @@
       <c r="Z296" s="6"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="10"/>
+      <c r="A297" s="11"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
@@ -8662,7 +8751,7 @@
       <c r="Z297" s="6"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="10"/>
+      <c r="A298" s="11"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
@@ -8690,7 +8779,7 @@
       <c r="Z298" s="6"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="10"/>
+      <c r="A299" s="11"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
@@ -8718,7 +8807,7 @@
       <c r="Z299" s="6"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="10"/>
+      <c r="A300" s="11"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
@@ -8746,7 +8835,7 @@
       <c r="Z300" s="6"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="10"/>
+      <c r="A301" s="11"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
@@ -8774,7 +8863,7 @@
       <c r="Z301" s="6"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="10"/>
+      <c r="A302" s="11"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
@@ -8802,7 +8891,7 @@
       <c r="Z302" s="6"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="10"/>
+      <c r="A303" s="11"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
@@ -8830,7 +8919,7 @@
       <c r="Z303" s="6"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="10"/>
+      <c r="A304" s="11"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
       <c r="D304" s="6"/>
@@ -8858,7 +8947,7 @@
       <c r="Z304" s="6"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="10"/>
+      <c r="A305" s="11"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
       <c r="D305" s="6"/>
@@ -8886,7 +8975,7 @@
       <c r="Z305" s="6"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="10"/>
+      <c r="A306" s="11"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
@@ -8914,7 +9003,7 @@
       <c r="Z306" s="6"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="10"/>
+      <c r="A307" s="11"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
@@ -8942,7 +9031,7 @@
       <c r="Z307" s="6"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="10"/>
+      <c r="A308" s="11"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
@@ -8970,7 +9059,7 @@
       <c r="Z308" s="6"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="10"/>
+      <c r="A309" s="11"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
@@ -8998,7 +9087,7 @@
       <c r="Z309" s="6"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="10"/>
+      <c r="A310" s="11"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
@@ -9026,7 +9115,7 @@
       <c r="Z310" s="6"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="10"/>
+      <c r="A311" s="11"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
@@ -9054,7 +9143,7 @@
       <c r="Z311" s="6"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="10"/>
+      <c r="A312" s="11"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
@@ -9082,7 +9171,7 @@
       <c r="Z312" s="6"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="10"/>
+      <c r="A313" s="11"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
@@ -9110,7 +9199,7 @@
       <c r="Z313" s="6"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="10"/>
+      <c r="A314" s="11"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
@@ -9138,7 +9227,7 @@
       <c r="Z314" s="6"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="10"/>
+      <c r="A315" s="11"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
@@ -9166,7 +9255,7 @@
       <c r="Z315" s="6"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="10"/>
+      <c r="A316" s="11"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
@@ -9194,7 +9283,7 @@
       <c r="Z316" s="6"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="10"/>
+      <c r="A317" s="11"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
@@ -9222,7 +9311,7 @@
       <c r="Z317" s="6"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="10"/>
+      <c r="A318" s="11"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
@@ -9250,7 +9339,7 @@
       <c r="Z318" s="6"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="10"/>
+      <c r="A319" s="11"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
@@ -9278,7 +9367,7 @@
       <c r="Z319" s="6"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="10"/>
+      <c r="A320" s="11"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
@@ -9306,7 +9395,7 @@
       <c r="Z320" s="6"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="10"/>
+      <c r="A321" s="11"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
@@ -9334,7 +9423,7 @@
       <c r="Z321" s="6"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="10"/>
+      <c r="A322" s="11"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
@@ -9362,7 +9451,7 @@
       <c r="Z322" s="6"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="10"/>
+      <c r="A323" s="11"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
@@ -9390,7 +9479,7 @@
       <c r="Z323" s="6"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="10"/>
+      <c r="A324" s="11"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
@@ -9418,7 +9507,7 @@
       <c r="Z324" s="6"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="10"/>
+      <c r="A325" s="11"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
@@ -9446,7 +9535,7 @@
       <c r="Z325" s="6"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="10"/>
+      <c r="A326" s="11"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
@@ -9474,7 +9563,7 @@
       <c r="Z326" s="6"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="10"/>
+      <c r="A327" s="11"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
@@ -9502,7 +9591,7 @@
       <c r="Z327" s="6"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="10"/>
+      <c r="A328" s="11"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
@@ -9530,7 +9619,7 @@
       <c r="Z328" s="6"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="10"/>
+      <c r="A329" s="11"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
@@ -9558,7 +9647,7 @@
       <c r="Z329" s="6"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="10"/>
+      <c r="A330" s="11"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
@@ -9586,7 +9675,7 @@
       <c r="Z330" s="6"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="10"/>
+      <c r="A331" s="11"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
@@ -9614,7 +9703,7 @@
       <c r="Z331" s="6"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="10"/>
+      <c r="A332" s="11"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
@@ -9642,7 +9731,7 @@
       <c r="Z332" s="6"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="10"/>
+      <c r="A333" s="11"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
@@ -9670,7 +9759,7 @@
       <c r="Z333" s="6"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="10"/>
+      <c r="A334" s="11"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
@@ -9698,7 +9787,7 @@
       <c r="Z334" s="6"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="10"/>
+      <c r="A335" s="11"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
@@ -9726,7 +9815,7 @@
       <c r="Z335" s="6"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="10"/>
+      <c r="A336" s="11"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
@@ -9754,7 +9843,7 @@
       <c r="Z336" s="6"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="10"/>
+      <c r="A337" s="11"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
@@ -9782,7 +9871,7 @@
       <c r="Z337" s="6"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="10"/>
+      <c r="A338" s="11"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
@@ -9810,7 +9899,7 @@
       <c r="Z338" s="6"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="10"/>
+      <c r="A339" s="11"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
@@ -9838,7 +9927,7 @@
       <c r="Z339" s="6"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="10"/>
+      <c r="A340" s="11"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
@@ -9866,7 +9955,7 @@
       <c r="Z340" s="6"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="10"/>
+      <c r="A341" s="11"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
@@ -9894,7 +9983,7 @@
       <c r="Z341" s="6"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="10"/>
+      <c r="A342" s="11"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
@@ -9922,7 +10011,7 @@
       <c r="Z342" s="6"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="10"/>
+      <c r="A343" s="11"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
@@ -9950,7 +10039,7 @@
       <c r="Z343" s="6"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="10"/>
+      <c r="A344" s="11"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
@@ -9978,7 +10067,7 @@
       <c r="Z344" s="6"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="10"/>
+      <c r="A345" s="11"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
@@ -10006,7 +10095,7 @@
       <c r="Z345" s="6"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="10"/>
+      <c r="A346" s="11"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
@@ -10034,7 +10123,7 @@
       <c r="Z346" s="6"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="10"/>
+      <c r="A347" s="11"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
@@ -10062,7 +10151,7 @@
       <c r="Z347" s="6"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="10"/>
+      <c r="A348" s="11"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
@@ -10090,7 +10179,7 @@
       <c r="Z348" s="6"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="10"/>
+      <c r="A349" s="11"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
@@ -10118,7 +10207,7 @@
       <c r="Z349" s="6"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="10"/>
+      <c r="A350" s="11"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
@@ -10146,7 +10235,7 @@
       <c r="Z350" s="6"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="10"/>
+      <c r="A351" s="11"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
@@ -10174,7 +10263,7 @@
       <c r="Z351" s="6"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="10"/>
+      <c r="A352" s="11"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
@@ -10202,7 +10291,7 @@
       <c r="Z352" s="6"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="10"/>
+      <c r="A353" s="11"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
@@ -10230,7 +10319,7 @@
       <c r="Z353" s="6"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="10"/>
+      <c r="A354" s="11"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
@@ -10258,7 +10347,7 @@
       <c r="Z354" s="6"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="10"/>
+      <c r="A355" s="11"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
@@ -10286,7 +10375,7 @@
       <c r="Z355" s="6"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="10"/>
+      <c r="A356" s="11"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -10314,7 +10403,7 @@
       <c r="Z356" s="6"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="10"/>
+      <c r="A357" s="11"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
@@ -10342,7 +10431,7 @@
       <c r="Z357" s="6"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="10"/>
+      <c r="A358" s="11"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
@@ -10370,7 +10459,7 @@
       <c r="Z358" s="6"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="10"/>
+      <c r="A359" s="11"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
@@ -10398,7 +10487,7 @@
       <c r="Z359" s="6"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="10"/>
+      <c r="A360" s="11"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
@@ -10426,7 +10515,7 @@
       <c r="Z360" s="6"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="10"/>
+      <c r="A361" s="11"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
@@ -10454,7 +10543,7 @@
       <c r="Z361" s="6"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="10"/>
+      <c r="A362" s="11"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
@@ -10482,7 +10571,7 @@
       <c r="Z362" s="6"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="10"/>
+      <c r="A363" s="11"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
@@ -10510,7 +10599,7 @@
       <c r="Z363" s="6"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="10"/>
+      <c r="A364" s="11"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
       <c r="D364" s="6"/>
@@ -10538,7 +10627,7 @@
       <c r="Z364" s="6"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="10"/>
+      <c r="A365" s="11"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
@@ -10566,7 +10655,7 @@
       <c r="Z365" s="6"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="10"/>
+      <c r="A366" s="11"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
@@ -10594,7 +10683,7 @@
       <c r="Z366" s="6"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="10"/>
+      <c r="A367" s="11"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
@@ -10622,7 +10711,7 @@
       <c r="Z367" s="6"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="10"/>
+      <c r="A368" s="11"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
@@ -10650,7 +10739,7 @@
       <c r="Z368" s="6"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="10"/>
+      <c r="A369" s="11"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
       <c r="D369" s="6"/>
@@ -10678,7 +10767,7 @@
       <c r="Z369" s="6"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="10"/>
+      <c r="A370" s="11"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
@@ -10706,7 +10795,7 @@
       <c r="Z370" s="6"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="10"/>
+      <c r="A371" s="11"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
       <c r="D371" s="6"/>
@@ -10734,7 +10823,7 @@
       <c r="Z371" s="6"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="10"/>
+      <c r="A372" s="11"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
@@ -10762,7 +10851,7 @@
       <c r="Z372" s="6"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="10"/>
+      <c r="A373" s="11"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
@@ -10790,7 +10879,7 @@
       <c r="Z373" s="6"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="10"/>
+      <c r="A374" s="11"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
@@ -10818,7 +10907,7 @@
       <c r="Z374" s="6"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="10"/>
+      <c r="A375" s="11"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
@@ -10846,7 +10935,7 @@
       <c r="Z375" s="6"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="10"/>
+      <c r="A376" s="11"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
       <c r="D376" s="6"/>
@@ -10874,7 +10963,7 @@
       <c r="Z376" s="6"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="10"/>
+      <c r="A377" s="11"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
       <c r="D377" s="6"/>
@@ -10902,7 +10991,7 @@
       <c r="Z377" s="6"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="10"/>
+      <c r="A378" s="11"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
@@ -10930,7 +11019,7 @@
       <c r="Z378" s="6"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="10"/>
+      <c r="A379" s="11"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
       <c r="D379" s="6"/>
@@ -10958,7 +11047,7 @@
       <c r="Z379" s="6"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="10"/>
+      <c r="A380" s="11"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
       <c r="D380" s="6"/>
@@ -10986,7 +11075,7 @@
       <c r="Z380" s="6"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="10"/>
+      <c r="A381" s="11"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
@@ -11014,7 +11103,7 @@
       <c r="Z381" s="6"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="10"/>
+      <c r="A382" s="11"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
@@ -11042,7 +11131,7 @@
       <c r="Z382" s="6"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="10"/>
+      <c r="A383" s="11"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
@@ -11070,7 +11159,7 @@
       <c r="Z383" s="6"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="10"/>
+      <c r="A384" s="11"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
       <c r="D384" s="6"/>
@@ -11098,7 +11187,7 @@
       <c r="Z384" s="6"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="10"/>
+      <c r="A385" s="11"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
       <c r="D385" s="6"/>
@@ -11126,7 +11215,7 @@
       <c r="Z385" s="6"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="10"/>
+      <c r="A386" s="11"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
@@ -11154,7 +11243,7 @@
       <c r="Z386" s="6"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="10"/>
+      <c r="A387" s="11"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
@@ -11182,7 +11271,7 @@
       <c r="Z387" s="6"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="10"/>
+      <c r="A388" s="11"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
@@ -11210,7 +11299,7 @@
       <c r="Z388" s="6"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="10"/>
+      <c r="A389" s="11"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
       <c r="D389" s="6"/>
@@ -11238,7 +11327,7 @@
       <c r="Z389" s="6"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="10"/>
+      <c r="A390" s="11"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
       <c r="D390" s="6"/>
@@ -11266,7 +11355,7 @@
       <c r="Z390" s="6"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="10"/>
+      <c r="A391" s="11"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
       <c r="D391" s="6"/>
@@ -11294,7 +11383,7 @@
       <c r="Z391" s="6"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="10"/>
+      <c r="A392" s="11"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
       <c r="D392" s="6"/>
@@ -11322,7 +11411,7 @@
       <c r="Z392" s="6"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="10"/>
+      <c r="A393" s="11"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
@@ -11350,7 +11439,7 @@
       <c r="Z393" s="6"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="10"/>
+      <c r="A394" s="11"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
@@ -11378,7 +11467,7 @@
       <c r="Z394" s="6"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="10"/>
+      <c r="A395" s="11"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
@@ -11406,7 +11495,7 @@
       <c r="Z395" s="6"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="10"/>
+      <c r="A396" s="11"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
@@ -11434,7 +11523,7 @@
       <c r="Z396" s="6"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="10"/>
+      <c r="A397" s="11"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
       <c r="D397" s="6"/>
@@ -11462,7 +11551,7 @@
       <c r="Z397" s="6"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="10"/>
+      <c r="A398" s="11"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
       <c r="D398" s="6"/>
@@ -11490,7 +11579,7 @@
       <c r="Z398" s="6"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="10"/>
+      <c r="A399" s="11"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
@@ -11518,7 +11607,7 @@
       <c r="Z399" s="6"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="10"/>
+      <c r="A400" s="11"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
       <c r="D400" s="6"/>
@@ -11546,7 +11635,7 @@
       <c r="Z400" s="6"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="10"/>
+      <c r="A401" s="11"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
       <c r="D401" s="6"/>
@@ -11574,7 +11663,7 @@
       <c r="Z401" s="6"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="10"/>
+      <c r="A402" s="11"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
       <c r="D402" s="6"/>
@@ -11602,7 +11691,7 @@
       <c r="Z402" s="6"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="10"/>
+      <c r="A403" s="11"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
@@ -11630,7 +11719,7 @@
       <c r="Z403" s="6"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="10"/>
+      <c r="A404" s="11"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
       <c r="D404" s="6"/>
@@ -11658,7 +11747,7 @@
       <c r="Z404" s="6"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="10"/>
+      <c r="A405" s="11"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
       <c r="D405" s="6"/>
@@ -11686,7 +11775,7 @@
       <c r="Z405" s="6"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="10"/>
+      <c r="A406" s="11"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
       <c r="D406" s="6"/>
@@ -11714,7 +11803,7 @@
       <c r="Z406" s="6"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="10"/>
+      <c r="A407" s="11"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
       <c r="D407" s="6"/>
@@ -11742,7 +11831,7 @@
       <c r="Z407" s="6"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="10"/>
+      <c r="A408" s="11"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
       <c r="D408" s="6"/>
@@ -11770,7 +11859,7 @@
       <c r="Z408" s="6"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="10"/>
+      <c r="A409" s="11"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
       <c r="D409" s="6"/>
@@ -11798,7 +11887,7 @@
       <c r="Z409" s="6"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="10"/>
+      <c r="A410" s="11"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
@@ -11826,7 +11915,7 @@
       <c r="Z410" s="6"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="10"/>
+      <c r="A411" s="11"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
       <c r="D411" s="6"/>
@@ -11854,7 +11943,7 @@
       <c r="Z411" s="6"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="10"/>
+      <c r="A412" s="11"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
       <c r="D412" s="6"/>
@@ -11882,7 +11971,7 @@
       <c r="Z412" s="6"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="10"/>
+      <c r="A413" s="11"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
       <c r="D413" s="6"/>
@@ -11910,7 +11999,7 @@
       <c r="Z413" s="6"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="10"/>
+      <c r="A414" s="11"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
       <c r="D414" s="6"/>
@@ -11938,7 +12027,7 @@
       <c r="Z414" s="6"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="10"/>
+      <c r="A415" s="11"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
       <c r="D415" s="6"/>
@@ -11966,7 +12055,7 @@
       <c r="Z415" s="6"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="10"/>
+      <c r="A416" s="11"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
       <c r="D416" s="6"/>
@@ -11994,7 +12083,7 @@
       <c r="Z416" s="6"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="10"/>
+      <c r="A417" s="11"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
       <c r="D417" s="6"/>
@@ -12022,7 +12111,7 @@
       <c r="Z417" s="6"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="10"/>
+      <c r="A418" s="11"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
       <c r="D418" s="6"/>
@@ -12050,7 +12139,7 @@
       <c r="Z418" s="6"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="10"/>
+      <c r="A419" s="11"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
       <c r="D419" s="6"/>
@@ -12078,7 +12167,7 @@
       <c r="Z419" s="6"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="10"/>
+      <c r="A420" s="11"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
       <c r="D420" s="6"/>
@@ -12106,7 +12195,7 @@
       <c r="Z420" s="6"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="10"/>
+      <c r="A421" s="11"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
       <c r="D421" s="6"/>
@@ -12134,7 +12223,7 @@
       <c r="Z421" s="6"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="10"/>
+      <c r="A422" s="11"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
       <c r="D422" s="6"/>
@@ -12162,7 +12251,7 @@
       <c r="Z422" s="6"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="10"/>
+      <c r="A423" s="11"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
       <c r="D423" s="6"/>
@@ -12190,7 +12279,7 @@
       <c r="Z423" s="6"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="10"/>
+      <c r="A424" s="11"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
       <c r="D424" s="6"/>
@@ -12218,7 +12307,7 @@
       <c r="Z424" s="6"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="10"/>
+      <c r="A425" s="11"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
       <c r="D425" s="6"/>
@@ -12246,7 +12335,7 @@
       <c r="Z425" s="6"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="10"/>
+      <c r="A426" s="11"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
       <c r="D426" s="6"/>
@@ -12274,7 +12363,7 @@
       <c r="Z426" s="6"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="10"/>
+      <c r="A427" s="11"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
       <c r="D427" s="6"/>
@@ -12302,7 +12391,7 @@
       <c r="Z427" s="6"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="10"/>
+      <c r="A428" s="11"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
       <c r="D428" s="6"/>
@@ -12330,7 +12419,7 @@
       <c r="Z428" s="6"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="10"/>
+      <c r="A429" s="11"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
       <c r="D429" s="6"/>
@@ -12358,7 +12447,7 @@
       <c r="Z429" s="6"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="10"/>
+      <c r="A430" s="11"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
       <c r="D430" s="6"/>
@@ -12386,7 +12475,7 @@
       <c r="Z430" s="6"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="10"/>
+      <c r="A431" s="11"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
       <c r="D431" s="6"/>
@@ -12414,7 +12503,7 @@
       <c r="Z431" s="6"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="10"/>
+      <c r="A432" s="11"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
       <c r="D432" s="6"/>
@@ -12442,7 +12531,7 @@
       <c r="Z432" s="6"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="10"/>
+      <c r="A433" s="11"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
       <c r="D433" s="6"/>
@@ -12470,7 +12559,7 @@
       <c r="Z433" s="6"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="10"/>
+      <c r="A434" s="11"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
       <c r="D434" s="6"/>
@@ -12498,7 +12587,7 @@
       <c r="Z434" s="6"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="10"/>
+      <c r="A435" s="11"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
       <c r="D435" s="6"/>
@@ -12526,7 +12615,7 @@
       <c r="Z435" s="6"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="10"/>
+      <c r="A436" s="11"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
       <c r="D436" s="6"/>
@@ -12554,7 +12643,7 @@
       <c r="Z436" s="6"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="10"/>
+      <c r="A437" s="11"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
       <c r="D437" s="6"/>
@@ -12582,7 +12671,7 @@
       <c r="Z437" s="6"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="10"/>
+      <c r="A438" s="11"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
       <c r="D438" s="6"/>
@@ -12610,7 +12699,7 @@
       <c r="Z438" s="6"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="10"/>
+      <c r="A439" s="11"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
       <c r="D439" s="6"/>
@@ -12638,7 +12727,7 @@
       <c r="Z439" s="6"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="10"/>
+      <c r="A440" s="11"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
       <c r="D440" s="6"/>
@@ -12666,7 +12755,7 @@
       <c r="Z440" s="6"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="10"/>
+      <c r="A441" s="11"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
       <c r="D441" s="6"/>
@@ -12694,7 +12783,7 @@
       <c r="Z441" s="6"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="10"/>
+      <c r="A442" s="11"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
       <c r="D442" s="6"/>
@@ -12722,7 +12811,7 @@
       <c r="Z442" s="6"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="10"/>
+      <c r="A443" s="11"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
       <c r="D443" s="6"/>
@@ -12750,7 +12839,7 @@
       <c r="Z443" s="6"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="10"/>
+      <c r="A444" s="11"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
       <c r="D444" s="6"/>
@@ -12778,7 +12867,7 @@
       <c r="Z444" s="6"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="10"/>
+      <c r="A445" s="11"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
       <c r="D445" s="6"/>
@@ -12806,7 +12895,7 @@
       <c r="Z445" s="6"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="10"/>
+      <c r="A446" s="11"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
       <c r="D446" s="6"/>
@@ -12834,7 +12923,7 @@
       <c r="Z446" s="6"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="10"/>
+      <c r="A447" s="11"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
       <c r="D447" s="6"/>
@@ -12862,7 +12951,7 @@
       <c r="Z447" s="6"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="10"/>
+      <c r="A448" s="11"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
       <c r="D448" s="6"/>
@@ -12890,7 +12979,7 @@
       <c r="Z448" s="6"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="10"/>
+      <c r="A449" s="11"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
       <c r="D449" s="6"/>
@@ -12918,7 +13007,7 @@
       <c r="Z449" s="6"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="10"/>
+      <c r="A450" s="11"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
       <c r="D450" s="6"/>
@@ -12946,7 +13035,7 @@
       <c r="Z450" s="6"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="10"/>
+      <c r="A451" s="11"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
       <c r="D451" s="6"/>
@@ -12974,7 +13063,7 @@
       <c r="Z451" s="6"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="10"/>
+      <c r="A452" s="11"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
       <c r="D452" s="6"/>
@@ -13002,7 +13091,7 @@
       <c r="Z452" s="6"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="10"/>
+      <c r="A453" s="11"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
       <c r="D453" s="6"/>
@@ -13030,7 +13119,7 @@
       <c r="Z453" s="6"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="10"/>
+      <c r="A454" s="11"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
       <c r="D454" s="6"/>
@@ -13058,7 +13147,7 @@
       <c r="Z454" s="6"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="10"/>
+      <c r="A455" s="11"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
       <c r="D455" s="6"/>
@@ -13086,7 +13175,7 @@
       <c r="Z455" s="6"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="10"/>
+      <c r="A456" s="11"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
       <c r="D456" s="6"/>
@@ -13114,7 +13203,7 @@
       <c r="Z456" s="6"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="10"/>
+      <c r="A457" s="11"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
       <c r="D457" s="6"/>
@@ -13142,7 +13231,7 @@
       <c r="Z457" s="6"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="10"/>
+      <c r="A458" s="11"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
       <c r="D458" s="6"/>
@@ -13170,7 +13259,7 @@
       <c r="Z458" s="6"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="10"/>
+      <c r="A459" s="11"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
       <c r="D459" s="6"/>
@@ -13198,7 +13287,7 @@
       <c r="Z459" s="6"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="10"/>
+      <c r="A460" s="11"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
       <c r="D460" s="6"/>
@@ -13226,7 +13315,7 @@
       <c r="Z460" s="6"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="10"/>
+      <c r="A461" s="11"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
       <c r="D461" s="6"/>
@@ -13254,7 +13343,7 @@
       <c r="Z461" s="6"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="10"/>
+      <c r="A462" s="11"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
       <c r="D462" s="6"/>
@@ -13282,7 +13371,7 @@
       <c r="Z462" s="6"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="10"/>
+      <c r="A463" s="11"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
       <c r="D463" s="6"/>
@@ -13310,7 +13399,7 @@
       <c r="Z463" s="6"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="10"/>
+      <c r="A464" s="11"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
       <c r="D464" s="6"/>
@@ -13338,7 +13427,7 @@
       <c r="Z464" s="6"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="10"/>
+      <c r="A465" s="11"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
       <c r="D465" s="6"/>
@@ -13366,7 +13455,7 @@
       <c r="Z465" s="6"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="10"/>
+      <c r="A466" s="11"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
       <c r="D466" s="6"/>
@@ -13394,7 +13483,7 @@
       <c r="Z466" s="6"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="10"/>
+      <c r="A467" s="11"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
       <c r="D467" s="6"/>
@@ -13422,7 +13511,7 @@
       <c r="Z467" s="6"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="10"/>
+      <c r="A468" s="11"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
       <c r="D468" s="6"/>
@@ -13450,7 +13539,7 @@
       <c r="Z468" s="6"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="10"/>
+      <c r="A469" s="11"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
       <c r="D469" s="6"/>
@@ -13478,7 +13567,7 @@
       <c r="Z469" s="6"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="10"/>
+      <c r="A470" s="11"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
       <c r="D470" s="6"/>
@@ -13506,7 +13595,7 @@
       <c r="Z470" s="6"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="10"/>
+      <c r="A471" s="11"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
@@ -13534,7 +13623,7 @@
       <c r="Z471" s="6"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="10"/>
+      <c r="A472" s="11"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
       <c r="D472" s="6"/>
@@ -13562,7 +13651,7 @@
       <c r="Z472" s="6"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="10"/>
+      <c r="A473" s="11"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
       <c r="D473" s="6"/>
@@ -13590,7 +13679,7 @@
       <c r="Z473" s="6"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="10"/>
+      <c r="A474" s="11"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
       <c r="D474" s="6"/>
@@ -13618,7 +13707,7 @@
       <c r="Z474" s="6"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="10"/>
+      <c r="A475" s="11"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
       <c r="D475" s="6"/>
@@ -13646,7 +13735,7 @@
       <c r="Z475" s="6"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="10"/>
+      <c r="A476" s="11"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
       <c r="D476" s="6"/>
@@ -13674,7 +13763,7 @@
       <c r="Z476" s="6"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="10"/>
+      <c r="A477" s="11"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
       <c r="D477" s="6"/>
@@ -13702,7 +13791,7 @@
       <c r="Z477" s="6"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="10"/>
+      <c r="A478" s="11"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
       <c r="D478" s="6"/>
@@ -13730,7 +13819,7 @@
       <c r="Z478" s="6"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="10"/>
+      <c r="A479" s="11"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
       <c r="D479" s="6"/>
@@ -13758,7 +13847,7 @@
       <c r="Z479" s="6"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="10"/>
+      <c r="A480" s="11"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
       <c r="D480" s="6"/>
@@ -13786,7 +13875,7 @@
       <c r="Z480" s="6"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="10"/>
+      <c r="A481" s="11"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
       <c r="D481" s="6"/>
@@ -13814,7 +13903,7 @@
       <c r="Z481" s="6"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="10"/>
+      <c r="A482" s="11"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
       <c r="D482" s="6"/>
@@ -13842,7 +13931,7 @@
       <c r="Z482" s="6"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="10"/>
+      <c r="A483" s="11"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
       <c r="D483" s="6"/>
@@ -13870,7 +13959,7 @@
       <c r="Z483" s="6"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="10"/>
+      <c r="A484" s="11"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
       <c r="D484" s="6"/>
@@ -13898,7 +13987,7 @@
       <c r="Z484" s="6"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="10"/>
+      <c r="A485" s="11"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
       <c r="D485" s="6"/>
@@ -13926,7 +14015,7 @@
       <c r="Z485" s="6"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="10"/>
+      <c r="A486" s="11"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
       <c r="D486" s="6"/>
@@ -13954,7 +14043,7 @@
       <c r="Z486" s="6"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="10"/>
+      <c r="A487" s="11"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
       <c r="D487" s="6"/>
@@ -13982,7 +14071,7 @@
       <c r="Z487" s="6"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="10"/>
+      <c r="A488" s="11"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
       <c r="D488" s="6"/>
@@ -14010,7 +14099,7 @@
       <c r="Z488" s="6"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="10"/>
+      <c r="A489" s="11"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
       <c r="D489" s="6"/>
@@ -14038,7 +14127,7 @@
       <c r="Z489" s="6"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="10"/>
+      <c r="A490" s="11"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
       <c r="D490" s="6"/>
@@ -14066,7 +14155,7 @@
       <c r="Z490" s="6"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="10"/>
+      <c r="A491" s="11"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
       <c r="D491" s="6"/>
@@ -14094,7 +14183,7 @@
       <c r="Z491" s="6"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="10"/>
+      <c r="A492" s="11"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
       <c r="D492" s="6"/>
@@ -14122,7 +14211,7 @@
       <c r="Z492" s="6"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="10"/>
+      <c r="A493" s="11"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
       <c r="D493" s="6"/>
@@ -14150,7 +14239,7 @@
       <c r="Z493" s="6"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="10"/>
+      <c r="A494" s="11"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
       <c r="D494" s="6"/>
@@ -14178,7 +14267,7 @@
       <c r="Z494" s="6"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="10"/>
+      <c r="A495" s="11"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
       <c r="D495" s="6"/>
@@ -14206,7 +14295,7 @@
       <c r="Z495" s="6"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="10"/>
+      <c r="A496" s="11"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
       <c r="D496" s="6"/>
@@ -14234,7 +14323,7 @@
       <c r="Z496" s="6"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="10"/>
+      <c r="A497" s="11"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
       <c r="D497" s="6"/>
@@ -14262,7 +14351,7 @@
       <c r="Z497" s="6"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="10"/>
+      <c r="A498" s="11"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
       <c r="D498" s="6"/>
@@ -14290,7 +14379,7 @@
       <c r="Z498" s="6"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="10"/>
+      <c r="A499" s="11"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
       <c r="D499" s="6"/>
@@ -14318,7 +14407,7 @@
       <c r="Z499" s="6"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="10"/>
+      <c r="A500" s="11"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
       <c r="D500" s="6"/>
@@ -14346,7 +14435,7 @@
       <c r="Z500" s="6"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="10"/>
+      <c r="A501" s="11"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
       <c r="D501" s="6"/>
@@ -14374,7 +14463,7 @@
       <c r="Z501" s="6"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="10"/>
+      <c r="A502" s="11"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
       <c r="D502" s="6"/>
@@ -14402,7 +14491,7 @@
       <c r="Z502" s="6"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="10"/>
+      <c r="A503" s="11"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
       <c r="D503" s="6"/>
@@ -14430,7 +14519,7 @@
       <c r="Z503" s="6"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="10"/>
+      <c r="A504" s="11"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
       <c r="D504" s="6"/>
@@ -14458,7 +14547,7 @@
       <c r="Z504" s="6"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="10"/>
+      <c r="A505" s="11"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
       <c r="D505" s="6"/>
@@ -14486,7 +14575,7 @@
       <c r="Z505" s="6"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="10"/>
+      <c r="A506" s="11"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
       <c r="D506" s="6"/>
@@ -14514,7 +14603,7 @@
       <c r="Z506" s="6"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="10"/>
+      <c r="A507" s="11"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
       <c r="D507" s="6"/>
@@ -14542,7 +14631,7 @@
       <c r="Z507" s="6"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="10"/>
+      <c r="A508" s="11"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
       <c r="D508" s="6"/>
@@ -14570,7 +14659,7 @@
       <c r="Z508" s="6"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="10"/>
+      <c r="A509" s="11"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
       <c r="D509" s="6"/>
@@ -14598,7 +14687,7 @@
       <c r="Z509" s="6"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="10"/>
+      <c r="A510" s="11"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
       <c r="D510" s="6"/>
@@ -14626,7 +14715,7 @@
       <c r="Z510" s="6"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="10"/>
+      <c r="A511" s="11"/>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
       <c r="D511" s="6"/>
@@ -14654,7 +14743,7 @@
       <c r="Z511" s="6"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="10"/>
+      <c r="A512" s="11"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
       <c r="D512" s="6"/>
@@ -14682,7 +14771,7 @@
       <c r="Z512" s="6"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="10"/>
+      <c r="A513" s="11"/>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
       <c r="D513" s="6"/>
@@ -14710,7 +14799,7 @@
       <c r="Z513" s="6"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="10"/>
+      <c r="A514" s="11"/>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
       <c r="D514" s="6"/>
@@ -14738,7 +14827,7 @@
       <c r="Z514" s="6"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="10"/>
+      <c r="A515" s="11"/>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
       <c r="D515" s="6"/>
@@ -14766,7 +14855,7 @@
       <c r="Z515" s="6"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="10"/>
+      <c r="A516" s="11"/>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
       <c r="D516" s="6"/>
@@ -14794,7 +14883,7 @@
       <c r="Z516" s="6"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="10"/>
+      <c r="A517" s="11"/>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
       <c r="D517" s="6"/>
@@ -14822,7 +14911,7 @@
       <c r="Z517" s="6"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="10"/>
+      <c r="A518" s="11"/>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
       <c r="D518" s="6"/>
@@ -14850,7 +14939,7 @@
       <c r="Z518" s="6"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="10"/>
+      <c r="A519" s="11"/>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
       <c r="D519" s="6"/>
@@ -14878,7 +14967,7 @@
       <c r="Z519" s="6"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="10"/>
+      <c r="A520" s="11"/>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
       <c r="D520" s="6"/>
@@ -14906,7 +14995,7 @@
       <c r="Z520" s="6"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="10"/>
+      <c r="A521" s="11"/>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
       <c r="D521" s="6"/>
@@ -14934,7 +15023,7 @@
       <c r="Z521" s="6"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="10"/>
+      <c r="A522" s="11"/>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
       <c r="D522" s="6"/>
@@ -14962,7 +15051,7 @@
       <c r="Z522" s="6"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="10"/>
+      <c r="A523" s="11"/>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
       <c r="D523" s="6"/>
@@ -14990,7 +15079,7 @@
       <c r="Z523" s="6"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="10"/>
+      <c r="A524" s="11"/>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
       <c r="D524" s="6"/>
@@ -15018,7 +15107,7 @@
       <c r="Z524" s="6"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="10"/>
+      <c r="A525" s="11"/>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
       <c r="D525" s="6"/>
@@ -15046,7 +15135,7 @@
       <c r="Z525" s="6"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="10"/>
+      <c r="A526" s="11"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
       <c r="D526" s="6"/>
@@ -15074,7 +15163,7 @@
       <c r="Z526" s="6"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="10"/>
+      <c r="A527" s="11"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
       <c r="D527" s="6"/>
@@ -15102,7 +15191,7 @@
       <c r="Z527" s="6"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="10"/>
+      <c r="A528" s="11"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
       <c r="D528" s="6"/>
@@ -15130,7 +15219,7 @@
       <c r="Z528" s="6"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="10"/>
+      <c r="A529" s="11"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
       <c r="D529" s="6"/>
@@ -15158,7 +15247,7 @@
       <c r="Z529" s="6"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="10"/>
+      <c r="A530" s="11"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
       <c r="D530" s="6"/>
@@ -15186,7 +15275,7 @@
       <c r="Z530" s="6"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="10"/>
+      <c r="A531" s="11"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
       <c r="D531" s="6"/>
@@ -15214,7 +15303,7 @@
       <c r="Z531" s="6"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="10"/>
+      <c r="A532" s="11"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
       <c r="D532" s="6"/>
@@ -15242,7 +15331,7 @@
       <c r="Z532" s="6"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="10"/>
+      <c r="A533" s="11"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
       <c r="D533" s="6"/>
@@ -15270,7 +15359,7 @@
       <c r="Z533" s="6"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="10"/>
+      <c r="A534" s="11"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
       <c r="D534" s="6"/>
@@ -15298,7 +15387,7 @@
       <c r="Z534" s="6"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="10"/>
+      <c r="A535" s="11"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
       <c r="D535" s="6"/>
@@ -15326,7 +15415,7 @@
       <c r="Z535" s="6"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="10"/>
+      <c r="A536" s="11"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
       <c r="D536" s="6"/>
@@ -15354,7 +15443,7 @@
       <c r="Z536" s="6"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="10"/>
+      <c r="A537" s="11"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
       <c r="D537" s="6"/>
@@ -15382,7 +15471,7 @@
       <c r="Z537" s="6"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="10"/>
+      <c r="A538" s="11"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
       <c r="D538" s="6"/>
@@ -15410,7 +15499,7 @@
       <c r="Z538" s="6"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="10"/>
+      <c r="A539" s="11"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
       <c r="D539" s="6"/>
@@ -15438,7 +15527,7 @@
       <c r="Z539" s="6"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="10"/>
+      <c r="A540" s="11"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
       <c r="D540" s="6"/>
@@ -15466,7 +15555,7 @@
       <c r="Z540" s="6"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="10"/>
+      <c r="A541" s="11"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
       <c r="D541" s="6"/>
@@ -15494,7 +15583,7 @@
       <c r="Z541" s="6"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="10"/>
+      <c r="A542" s="11"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
       <c r="D542" s="6"/>
@@ -15522,7 +15611,7 @@
       <c r="Z542" s="6"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="10"/>
+      <c r="A543" s="11"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
       <c r="D543" s="6"/>
@@ -15550,7 +15639,7 @@
       <c r="Z543" s="6"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="10"/>
+      <c r="A544" s="11"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
       <c r="D544" s="6"/>
@@ -15578,7 +15667,7 @@
       <c r="Z544" s="6"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="10"/>
+      <c r="A545" s="11"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
       <c r="D545" s="6"/>
@@ -15606,7 +15695,7 @@
       <c r="Z545" s="6"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="10"/>
+      <c r="A546" s="11"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
       <c r="D546" s="6"/>
@@ -15634,7 +15723,7 @@
       <c r="Z546" s="6"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="10"/>
+      <c r="A547" s="11"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
       <c r="D547" s="6"/>
@@ -15662,7 +15751,7 @@
       <c r="Z547" s="6"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="10"/>
+      <c r="A548" s="11"/>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
       <c r="D548" s="6"/>
@@ -15690,7 +15779,7 @@
       <c r="Z548" s="6"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="10"/>
+      <c r="A549" s="11"/>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
       <c r="D549" s="6"/>
@@ -15718,7 +15807,7 @@
       <c r="Z549" s="6"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="10"/>
+      <c r="A550" s="11"/>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
       <c r="D550" s="6"/>
@@ -15746,7 +15835,7 @@
       <c r="Z550" s="6"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="10"/>
+      <c r="A551" s="11"/>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
       <c r="D551" s="6"/>
@@ -15774,7 +15863,7 @@
       <c r="Z551" s="6"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="10"/>
+      <c r="A552" s="11"/>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
       <c r="D552" s="6"/>
@@ -15802,7 +15891,7 @@
       <c r="Z552" s="6"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="10"/>
+      <c r="A553" s="11"/>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
       <c r="D553" s="6"/>
@@ -15830,7 +15919,7 @@
       <c r="Z553" s="6"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="10"/>
+      <c r="A554" s="11"/>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
       <c r="D554" s="6"/>
@@ -15858,7 +15947,7 @@
       <c r="Z554" s="6"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="10"/>
+      <c r="A555" s="11"/>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
       <c r="D555" s="6"/>
@@ -15886,7 +15975,7 @@
       <c r="Z555" s="6"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="10"/>
+      <c r="A556" s="11"/>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
       <c r="D556" s="6"/>
@@ -15914,7 +16003,7 @@
       <c r="Z556" s="6"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="10"/>
+      <c r="A557" s="11"/>
       <c r="B557" s="6"/>
       <c r="C557" s="6"/>
       <c r="D557" s="6"/>
@@ -15942,7 +16031,7 @@
       <c r="Z557" s="6"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="10"/>
+      <c r="A558" s="11"/>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
       <c r="D558" s="6"/>
@@ -15970,7 +16059,7 @@
       <c r="Z558" s="6"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="10"/>
+      <c r="A559" s="11"/>
       <c r="B559" s="6"/>
       <c r="C559" s="6"/>
       <c r="D559" s="6"/>
@@ -15998,7 +16087,7 @@
       <c r="Z559" s="6"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="10"/>
+      <c r="A560" s="11"/>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
       <c r="D560" s="6"/>
@@ -16026,7 +16115,7 @@
       <c r="Z560" s="6"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="10"/>
+      <c r="A561" s="11"/>
       <c r="B561" s="6"/>
       <c r="C561" s="6"/>
       <c r="D561" s="6"/>
@@ -16054,7 +16143,7 @@
       <c r="Z561" s="6"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="10"/>
+      <c r="A562" s="11"/>
       <c r="B562" s="6"/>
       <c r="C562" s="6"/>
       <c r="D562" s="6"/>
@@ -16082,7 +16171,7 @@
       <c r="Z562" s="6"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="10"/>
+      <c r="A563" s="11"/>
       <c r="B563" s="6"/>
       <c r="C563" s="6"/>
       <c r="D563" s="6"/>
@@ -16110,7 +16199,7 @@
       <c r="Z563" s="6"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="10"/>
+      <c r="A564" s="11"/>
       <c r="B564" s="6"/>
       <c r="C564" s="6"/>
       <c r="D564" s="6"/>
@@ -16138,7 +16227,7 @@
       <c r="Z564" s="6"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="10"/>
+      <c r="A565" s="11"/>
       <c r="B565" s="6"/>
       <c r="C565" s="6"/>
       <c r="D565" s="6"/>
@@ -16166,7 +16255,7 @@
       <c r="Z565" s="6"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="10"/>
+      <c r="A566" s="11"/>
       <c r="B566" s="6"/>
       <c r="C566" s="6"/>
       <c r="D566" s="6"/>
@@ -16194,7 +16283,7 @@
       <c r="Z566" s="6"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="10"/>
+      <c r="A567" s="11"/>
       <c r="B567" s="6"/>
       <c r="C567" s="6"/>
       <c r="D567" s="6"/>
@@ -16222,7 +16311,7 @@
       <c r="Z567" s="6"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="10"/>
+      <c r="A568" s="11"/>
       <c r="B568" s="6"/>
       <c r="C568" s="6"/>
       <c r="D568" s="6"/>
@@ -16250,7 +16339,7 @@
       <c r="Z568" s="6"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="10"/>
+      <c r="A569" s="11"/>
       <c r="B569" s="6"/>
       <c r="C569" s="6"/>
       <c r="D569" s="6"/>
@@ -16278,7 +16367,7 @@
       <c r="Z569" s="6"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="10"/>
+      <c r="A570" s="11"/>
       <c r="B570" s="6"/>
       <c r="C570" s="6"/>
       <c r="D570" s="6"/>
@@ -16306,7 +16395,7 @@
       <c r="Z570" s="6"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="10"/>
+      <c r="A571" s="11"/>
       <c r="B571" s="6"/>
       <c r="C571" s="6"/>
       <c r="D571" s="6"/>
@@ -16334,7 +16423,7 @@
       <c r="Z571" s="6"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="10"/>
+      <c r="A572" s="11"/>
       <c r="B572" s="6"/>
       <c r="C572" s="6"/>
       <c r="D572" s="6"/>
@@ -16362,7 +16451,7 @@
       <c r="Z572" s="6"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="10"/>
+      <c r="A573" s="11"/>
       <c r="B573" s="6"/>
       <c r="C573" s="6"/>
       <c r="D573" s="6"/>
@@ -16390,7 +16479,7 @@
       <c r="Z573" s="6"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="10"/>
+      <c r="A574" s="11"/>
       <c r="B574" s="6"/>
       <c r="C574" s="6"/>
       <c r="D574" s="6"/>
@@ -16418,7 +16507,7 @@
       <c r="Z574" s="6"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="10"/>
+      <c r="A575" s="11"/>
       <c r="B575" s="6"/>
       <c r="C575" s="6"/>
       <c r="D575" s="6"/>
@@ -16446,7 +16535,7 @@
       <c r="Z575" s="6"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="10"/>
+      <c r="A576" s="11"/>
       <c r="B576" s="6"/>
       <c r="C576" s="6"/>
       <c r="D576" s="6"/>
@@ -16474,7 +16563,7 @@
       <c r="Z576" s="6"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="10"/>
+      <c r="A577" s="11"/>
       <c r="B577" s="6"/>
       <c r="C577" s="6"/>
       <c r="D577" s="6"/>
@@ -16502,7 +16591,7 @@
       <c r="Z577" s="6"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="10"/>
+      <c r="A578" s="11"/>
       <c r="B578" s="6"/>
       <c r="C578" s="6"/>
       <c r="D578" s="6"/>
@@ -16530,7 +16619,7 @@
       <c r="Z578" s="6"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="10"/>
+      <c r="A579" s="11"/>
       <c r="B579" s="6"/>
       <c r="C579" s="6"/>
       <c r="D579" s="6"/>
@@ -16558,7 +16647,7 @@
       <c r="Z579" s="6"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="10"/>
+      <c r="A580" s="11"/>
       <c r="B580" s="6"/>
       <c r="C580" s="6"/>
       <c r="D580" s="6"/>
@@ -16586,7 +16675,7 @@
       <c r="Z580" s="6"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="10"/>
+      <c r="A581" s="11"/>
       <c r="B581" s="6"/>
       <c r="C581" s="6"/>
       <c r="D581" s="6"/>
@@ -16614,7 +16703,7 @@
       <c r="Z581" s="6"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="10"/>
+      <c r="A582" s="11"/>
       <c r="B582" s="6"/>
       <c r="C582" s="6"/>
       <c r="D582" s="6"/>
@@ -16642,7 +16731,7 @@
       <c r="Z582" s="6"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="10"/>
+      <c r="A583" s="11"/>
       <c r="B583" s="6"/>
       <c r="C583" s="6"/>
       <c r="D583" s="6"/>
@@ -16670,7 +16759,7 @@
       <c r="Z583" s="6"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="10"/>
+      <c r="A584" s="11"/>
       <c r="B584" s="6"/>
       <c r="C584" s="6"/>
       <c r="D584" s="6"/>
@@ -16698,7 +16787,7 @@
       <c r="Z584" s="6"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="10"/>
+      <c r="A585" s="11"/>
       <c r="B585" s="6"/>
       <c r="C585" s="6"/>
       <c r="D585" s="6"/>
@@ -16726,7 +16815,7 @@
       <c r="Z585" s="6"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="10"/>
+      <c r="A586" s="11"/>
       <c r="B586" s="6"/>
       <c r="C586" s="6"/>
       <c r="D586" s="6"/>
@@ -16754,7 +16843,7 @@
       <c r="Z586" s="6"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="10"/>
+      <c r="A587" s="11"/>
       <c r="B587" s="6"/>
       <c r="C587" s="6"/>
       <c r="D587" s="6"/>
@@ -16782,7 +16871,7 @@
       <c r="Z587" s="6"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="10"/>
+      <c r="A588" s="11"/>
       <c r="B588" s="6"/>
       <c r="C588" s="6"/>
       <c r="D588" s="6"/>
@@ -16810,7 +16899,7 @@
       <c r="Z588" s="6"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="10"/>
+      <c r="A589" s="11"/>
       <c r="B589" s="6"/>
       <c r="C589" s="6"/>
       <c r="D589" s="6"/>
@@ -16838,7 +16927,7 @@
       <c r="Z589" s="6"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="10"/>
+      <c r="A590" s="11"/>
       <c r="B590" s="6"/>
       <c r="C590" s="6"/>
       <c r="D590" s="6"/>
@@ -16866,7 +16955,7 @@
       <c r="Z590" s="6"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="10"/>
+      <c r="A591" s="11"/>
       <c r="B591" s="6"/>
       <c r="C591" s="6"/>
       <c r="D591" s="6"/>
@@ -16894,7 +16983,7 @@
       <c r="Z591" s="6"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="10"/>
+      <c r="A592" s="11"/>
       <c r="B592" s="6"/>
       <c r="C592" s="6"/>
       <c r="D592" s="6"/>
@@ -16922,7 +17011,7 @@
       <c r="Z592" s="6"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="10"/>
+      <c r="A593" s="11"/>
       <c r="B593" s="6"/>
       <c r="C593" s="6"/>
       <c r="D593" s="6"/>
@@ -16950,7 +17039,7 @@
       <c r="Z593" s="6"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="10"/>
+      <c r="A594" s="11"/>
       <c r="B594" s="6"/>
       <c r="C594" s="6"/>
       <c r="D594" s="6"/>
@@ -16978,7 +17067,7 @@
       <c r="Z594" s="6"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="10"/>
+      <c r="A595" s="11"/>
       <c r="B595" s="6"/>
       <c r="C595" s="6"/>
       <c r="D595" s="6"/>
@@ -17006,7 +17095,7 @@
       <c r="Z595" s="6"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="10"/>
+      <c r="A596" s="11"/>
       <c r="B596" s="6"/>
       <c r="C596" s="6"/>
       <c r="D596" s="6"/>
@@ -17034,7 +17123,7 @@
       <c r="Z596" s="6"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="10"/>
+      <c r="A597" s="11"/>
       <c r="B597" s="6"/>
       <c r="C597" s="6"/>
       <c r="D597" s="6"/>
@@ -17062,7 +17151,7 @@
       <c r="Z597" s="6"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="10"/>
+      <c r="A598" s="11"/>
       <c r="B598" s="6"/>
       <c r="C598" s="6"/>
       <c r="D598" s="6"/>
@@ -17090,7 +17179,7 @@
       <c r="Z598" s="6"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="10"/>
+      <c r="A599" s="11"/>
       <c r="B599" s="6"/>
       <c r="C599" s="6"/>
       <c r="D599" s="6"/>
@@ -17118,7 +17207,7 @@
       <c r="Z599" s="6"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="10"/>
+      <c r="A600" s="11"/>
       <c r="B600" s="6"/>
       <c r="C600" s="6"/>
       <c r="D600" s="6"/>
@@ -17146,7 +17235,7 @@
       <c r="Z600" s="6"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="10"/>
+      <c r="A601" s="11"/>
       <c r="B601" s="6"/>
       <c r="C601" s="6"/>
       <c r="D601" s="6"/>
@@ -17174,7 +17263,7 @@
       <c r="Z601" s="6"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="10"/>
+      <c r="A602" s="11"/>
       <c r="B602" s="6"/>
       <c r="C602" s="6"/>
       <c r="D602" s="6"/>
@@ -17202,7 +17291,7 @@
       <c r="Z602" s="6"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="10"/>
+      <c r="A603" s="11"/>
       <c r="B603" s="6"/>
       <c r="C603" s="6"/>
       <c r="D603" s="6"/>
@@ -17230,7 +17319,7 @@
       <c r="Z603" s="6"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="10"/>
+      <c r="A604" s="11"/>
       <c r="B604" s="6"/>
       <c r="C604" s="6"/>
       <c r="D604" s="6"/>
@@ -17258,7 +17347,7 @@
       <c r="Z604" s="6"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="10"/>
+      <c r="A605" s="11"/>
       <c r="B605" s="6"/>
       <c r="C605" s="6"/>
       <c r="D605" s="6"/>
@@ -17286,7 +17375,7 @@
       <c r="Z605" s="6"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="10"/>
+      <c r="A606" s="11"/>
       <c r="B606" s="6"/>
       <c r="C606" s="6"/>
       <c r="D606" s="6"/>
@@ -17314,7 +17403,7 @@
       <c r="Z606" s="6"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="10"/>
+      <c r="A607" s="11"/>
       <c r="B607" s="6"/>
       <c r="C607" s="6"/>
       <c r="D607" s="6"/>
@@ -17342,7 +17431,7 @@
       <c r="Z607" s="6"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="10"/>
+      <c r="A608" s="11"/>
       <c r="B608" s="6"/>
       <c r="C608" s="6"/>
       <c r="D608" s="6"/>
@@ -17370,7 +17459,7 @@
       <c r="Z608" s="6"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="10"/>
+      <c r="A609" s="11"/>
       <c r="B609" s="6"/>
       <c r="C609" s="6"/>
       <c r="D609" s="6"/>
@@ -17398,7 +17487,7 @@
       <c r="Z609" s="6"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="10"/>
+      <c r="A610" s="11"/>
       <c r="B610" s="6"/>
       <c r="C610" s="6"/>
       <c r="D610" s="6"/>
@@ -17426,7 +17515,7 @@
       <c r="Z610" s="6"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="10"/>
+      <c r="A611" s="11"/>
       <c r="B611" s="6"/>
       <c r="C611" s="6"/>
       <c r="D611" s="6"/>
@@ -17454,7 +17543,7 @@
       <c r="Z611" s="6"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="10"/>
+      <c r="A612" s="11"/>
       <c r="B612" s="6"/>
       <c r="C612" s="6"/>
       <c r="D612" s="6"/>
@@ -17482,7 +17571,7 @@
       <c r="Z612" s="6"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="10"/>
+      <c r="A613" s="11"/>
       <c r="B613" s="6"/>
       <c r="C613" s="6"/>
       <c r="D613" s="6"/>
@@ -17510,7 +17599,7 @@
       <c r="Z613" s="6"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="10"/>
+      <c r="A614" s="11"/>
       <c r="B614" s="6"/>
       <c r="C614" s="6"/>
       <c r="D614" s="6"/>
@@ -17538,7 +17627,7 @@
       <c r="Z614" s="6"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="10"/>
+      <c r="A615" s="11"/>
       <c r="B615" s="6"/>
       <c r="C615" s="6"/>
       <c r="D615" s="6"/>
@@ -17566,7 +17655,7 @@
       <c r="Z615" s="6"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="10"/>
+      <c r="A616" s="11"/>
       <c r="B616" s="6"/>
       <c r="C616" s="6"/>
       <c r="D616" s="6"/>
@@ -17594,7 +17683,7 @@
       <c r="Z616" s="6"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="10"/>
+      <c r="A617" s="11"/>
       <c r="B617" s="6"/>
       <c r="C617" s="6"/>
       <c r="D617" s="6"/>
@@ -17622,7 +17711,7 @@
       <c r="Z617" s="6"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="10"/>
+      <c r="A618" s="11"/>
       <c r="B618" s="6"/>
       <c r="C618" s="6"/>
       <c r="D618" s="6"/>
@@ -17650,7 +17739,7 @@
       <c r="Z618" s="6"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="10"/>
+      <c r="A619" s="11"/>
       <c r="B619" s="6"/>
       <c r="C619" s="6"/>
       <c r="D619" s="6"/>
@@ -17678,7 +17767,7 @@
       <c r="Z619" s="6"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="10"/>
+      <c r="A620" s="11"/>
       <c r="B620" s="6"/>
       <c r="C620" s="6"/>
       <c r="D620" s="6"/>
@@ -17706,7 +17795,7 @@
       <c r="Z620" s="6"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="10"/>
+      <c r="A621" s="11"/>
       <c r="B621" s="6"/>
       <c r="C621" s="6"/>
       <c r="D621" s="6"/>
@@ -17734,7 +17823,7 @@
       <c r="Z621" s="6"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="10"/>
+      <c r="A622" s="11"/>
       <c r="B622" s="6"/>
       <c r="C622" s="6"/>
       <c r="D622" s="6"/>
@@ -17762,7 +17851,7 @@
       <c r="Z622" s="6"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="10"/>
+      <c r="A623" s="11"/>
       <c r="B623" s="6"/>
       <c r="C623" s="6"/>
       <c r="D623" s="6"/>
@@ -17790,7 +17879,7 @@
       <c r="Z623" s="6"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="10"/>
+      <c r="A624" s="11"/>
       <c r="B624" s="6"/>
       <c r="C624" s="6"/>
       <c r="D624" s="6"/>
@@ -17818,7 +17907,7 @@
       <c r="Z624" s="6"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="10"/>
+      <c r="A625" s="11"/>
       <c r="B625" s="6"/>
       <c r="C625" s="6"/>
       <c r="D625" s="6"/>
@@ -17846,7 +17935,7 @@
       <c r="Z625" s="6"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="10"/>
+      <c r="A626" s="11"/>
       <c r="B626" s="6"/>
       <c r="C626" s="6"/>
       <c r="D626" s="6"/>
@@ -17874,7 +17963,7 @@
       <c r="Z626" s="6"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="10"/>
+      <c r="A627" s="11"/>
       <c r="B627" s="6"/>
       <c r="C627" s="6"/>
       <c r="D627" s="6"/>
@@ -17902,7 +17991,7 @@
       <c r="Z627" s="6"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="10"/>
+      <c r="A628" s="11"/>
       <c r="B628" s="6"/>
       <c r="C628" s="6"/>
       <c r="D628" s="6"/>
@@ -17930,7 +18019,7 @@
       <c r="Z628" s="6"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="10"/>
+      <c r="A629" s="11"/>
       <c r="B629" s="6"/>
       <c r="C629" s="6"/>
       <c r="D629" s="6"/>
@@ -17958,7 +18047,7 @@
       <c r="Z629" s="6"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="10"/>
+      <c r="A630" s="11"/>
       <c r="B630" s="6"/>
       <c r="C630" s="6"/>
       <c r="D630" s="6"/>
@@ -17986,7 +18075,7 @@
       <c r="Z630" s="6"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="10"/>
+      <c r="A631" s="11"/>
       <c r="B631" s="6"/>
       <c r="C631" s="6"/>
       <c r="D631" s="6"/>
@@ -18014,7 +18103,7 @@
       <c r="Z631" s="6"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="10"/>
+      <c r="A632" s="11"/>
       <c r="B632" s="6"/>
       <c r="C632" s="6"/>
       <c r="D632" s="6"/>
@@ -18042,7 +18131,7 @@
       <c r="Z632" s="6"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="10"/>
+      <c r="A633" s="11"/>
       <c r="B633" s="6"/>
       <c r="C633" s="6"/>
       <c r="D633" s="6"/>
@@ -18070,7 +18159,7 @@
       <c r="Z633" s="6"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="10"/>
+      <c r="A634" s="11"/>
       <c r="B634" s="6"/>
       <c r="C634" s="6"/>
       <c r="D634" s="6"/>
@@ -18098,7 +18187,7 @@
       <c r="Z634" s="6"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="10"/>
+      <c r="A635" s="11"/>
       <c r="B635" s="6"/>
       <c r="C635" s="6"/>
       <c r="D635" s="6"/>
@@ -18126,7 +18215,7 @@
       <c r="Z635" s="6"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="10"/>
+      <c r="A636" s="11"/>
       <c r="B636" s="6"/>
       <c r="C636" s="6"/>
       <c r="D636" s="6"/>
@@ -18154,7 +18243,7 @@
       <c r="Z636" s="6"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="10"/>
+      <c r="A637" s="11"/>
       <c r="B637" s="6"/>
       <c r="C637" s="6"/>
       <c r="D637" s="6"/>
@@ -18182,7 +18271,7 @@
       <c r="Z637" s="6"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="10"/>
+      <c r="A638" s="11"/>
       <c r="B638" s="6"/>
       <c r="C638" s="6"/>
       <c r="D638" s="6"/>
@@ -18210,7 +18299,7 @@
       <c r="Z638" s="6"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="10"/>
+      <c r="A639" s="11"/>
       <c r="B639" s="6"/>
       <c r="C639" s="6"/>
       <c r="D639" s="6"/>
@@ -18238,7 +18327,7 @@
       <c r="Z639" s="6"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="10"/>
+      <c r="A640" s="11"/>
       <c r="B640" s="6"/>
       <c r="C640" s="6"/>
       <c r="D640" s="6"/>
@@ -18266,7 +18355,7 @@
       <c r="Z640" s="6"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="10"/>
+      <c r="A641" s="11"/>
       <c r="B641" s="6"/>
       <c r="C641" s="6"/>
       <c r="D641" s="6"/>
@@ -18294,7 +18383,7 @@
       <c r="Z641" s="6"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="10"/>
+      <c r="A642" s="11"/>
       <c r="B642" s="6"/>
       <c r="C642" s="6"/>
       <c r="D642" s="6"/>
@@ -18322,7 +18411,7 @@
       <c r="Z642" s="6"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="10"/>
+      <c r="A643" s="11"/>
       <c r="B643" s="6"/>
       <c r="C643" s="6"/>
       <c r="D643" s="6"/>
@@ -18350,7 +18439,7 @@
       <c r="Z643" s="6"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="10"/>
+      <c r="A644" s="11"/>
       <c r="B644" s="6"/>
       <c r="C644" s="6"/>
       <c r="D644" s="6"/>
@@ -18378,7 +18467,7 @@
       <c r="Z644" s="6"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="10"/>
+      <c r="A645" s="11"/>
       <c r="B645" s="6"/>
       <c r="C645" s="6"/>
       <c r="D645" s="6"/>
@@ -18406,7 +18495,7 @@
       <c r="Z645" s="6"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="10"/>
+      <c r="A646" s="11"/>
       <c r="B646" s="6"/>
       <c r="C646" s="6"/>
       <c r="D646" s="6"/>
@@ -18434,7 +18523,7 @@
       <c r="Z646" s="6"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="10"/>
+      <c r="A647" s="11"/>
       <c r="B647" s="6"/>
       <c r="C647" s="6"/>
       <c r="D647" s="6"/>
@@ -18462,7 +18551,7 @@
       <c r="Z647" s="6"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="10"/>
+      <c r="A648" s="11"/>
       <c r="B648" s="6"/>
       <c r="C648" s="6"/>
       <c r="D648" s="6"/>
@@ -18490,7 +18579,7 @@
       <c r="Z648" s="6"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="10"/>
+      <c r="A649" s="11"/>
       <c r="B649" s="6"/>
       <c r="C649" s="6"/>
       <c r="D649" s="6"/>
@@ -18518,7 +18607,7 @@
       <c r="Z649" s="6"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="10"/>
+      <c r="A650" s="11"/>
       <c r="B650" s="6"/>
       <c r="C650" s="6"/>
       <c r="D650" s="6"/>
@@ -18546,7 +18635,7 @@
       <c r="Z650" s="6"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="10"/>
+      <c r="A651" s="11"/>
       <c r="B651" s="6"/>
       <c r="C651" s="6"/>
       <c r="D651" s="6"/>
@@ -18574,7 +18663,7 @@
       <c r="Z651" s="6"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="10"/>
+      <c r="A652" s="11"/>
       <c r="B652" s="6"/>
       <c r="C652" s="6"/>
       <c r="D652" s="6"/>
@@ -18602,7 +18691,7 @@
       <c r="Z652" s="6"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="10"/>
+      <c r="A653" s="11"/>
       <c r="B653" s="6"/>
       <c r="C653" s="6"/>
       <c r="D653" s="6"/>
@@ -18630,7 +18719,7 @@
       <c r="Z653" s="6"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="10"/>
+      <c r="A654" s="11"/>
       <c r="B654" s="6"/>
       <c r="C654" s="6"/>
       <c r="D654" s="6"/>
@@ -18658,7 +18747,7 @@
       <c r="Z654" s="6"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="10"/>
+      <c r="A655" s="11"/>
       <c r="B655" s="6"/>
       <c r="C655" s="6"/>
       <c r="D655" s="6"/>
@@ -18686,7 +18775,7 @@
       <c r="Z655" s="6"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="10"/>
+      <c r="A656" s="11"/>
       <c r="B656" s="6"/>
       <c r="C656" s="6"/>
       <c r="D656" s="6"/>
@@ -18714,7 +18803,7 @@
       <c r="Z656" s="6"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="10"/>
+      <c r="A657" s="11"/>
       <c r="B657" s="6"/>
       <c r="C657" s="6"/>
       <c r="D657" s="6"/>
@@ -18742,7 +18831,7 @@
       <c r="Z657" s="6"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="10"/>
+      <c r="A658" s="11"/>
       <c r="B658" s="6"/>
       <c r="C658" s="6"/>
       <c r="D658" s="6"/>
@@ -18770,7 +18859,7 @@
       <c r="Z658" s="6"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="10"/>
+      <c r="A659" s="11"/>
       <c r="B659" s="6"/>
       <c r="C659" s="6"/>
       <c r="D659" s="6"/>
@@ -18798,7 +18887,7 @@
       <c r="Z659" s="6"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="10"/>
+      <c r="A660" s="11"/>
       <c r="B660" s="6"/>
       <c r="C660" s="6"/>
       <c r="D660" s="6"/>
@@ -18826,7 +18915,7 @@
       <c r="Z660" s="6"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="10"/>
+      <c r="A661" s="11"/>
       <c r="B661" s="6"/>
       <c r="C661" s="6"/>
       <c r="D661" s="6"/>
@@ -18854,7 +18943,7 @@
       <c r="Z661" s="6"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="10"/>
+      <c r="A662" s="11"/>
       <c r="B662" s="6"/>
       <c r="C662" s="6"/>
       <c r="D662" s="6"/>
@@ -18882,7 +18971,7 @@
       <c r="Z662" s="6"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="10"/>
+      <c r="A663" s="11"/>
       <c r="B663" s="6"/>
       <c r="C663" s="6"/>
       <c r="D663" s="6"/>
@@ -18910,7 +18999,7 @@
       <c r="Z663" s="6"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="10"/>
+      <c r="A664" s="11"/>
       <c r="B664" s="6"/>
       <c r="C664" s="6"/>
       <c r="D664" s="6"/>
@@ -18938,7 +19027,7 @@
       <c r="Z664" s="6"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="10"/>
+      <c r="A665" s="11"/>
       <c r="B665" s="6"/>
       <c r="C665" s="6"/>
       <c r="D665" s="6"/>
@@ -18966,7 +19055,7 @@
       <c r="Z665" s="6"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="10"/>
+      <c r="A666" s="11"/>
       <c r="B666" s="6"/>
       <c r="C666" s="6"/>
       <c r="D666" s="6"/>
@@ -18994,7 +19083,7 @@
       <c r="Z666" s="6"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="10"/>
+      <c r="A667" s="11"/>
       <c r="B667" s="6"/>
       <c r="C667" s="6"/>
       <c r="D667" s="6"/>
@@ -19022,7 +19111,7 @@
       <c r="Z667" s="6"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="10"/>
+      <c r="A668" s="11"/>
       <c r="B668" s="6"/>
       <c r="C668" s="6"/>
       <c r="D668" s="6"/>
@@ -19050,7 +19139,7 @@
       <c r="Z668" s="6"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="10"/>
+      <c r="A669" s="11"/>
       <c r="B669" s="6"/>
       <c r="C669" s="6"/>
       <c r="D669" s="6"/>
@@ -19078,7 +19167,7 @@
       <c r="Z669" s="6"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="10"/>
+      <c r="A670" s="11"/>
       <c r="B670" s="6"/>
       <c r="C670" s="6"/>
       <c r="D670" s="6"/>
@@ -19106,7 +19195,7 @@
       <c r="Z670" s="6"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="10"/>
+      <c r="A671" s="11"/>
       <c r="B671" s="6"/>
       <c r="C671" s="6"/>
       <c r="D671" s="6"/>
@@ -19134,7 +19223,7 @@
       <c r="Z671" s="6"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="10"/>
+      <c r="A672" s="11"/>
       <c r="B672" s="6"/>
       <c r="C672" s="6"/>
       <c r="D672" s="6"/>
@@ -19162,7 +19251,7 @@
       <c r="Z672" s="6"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="10"/>
+      <c r="A673" s="11"/>
       <c r="B673" s="6"/>
       <c r="C673" s="6"/>
       <c r="D673" s="6"/>
@@ -19190,7 +19279,7 @@
       <c r="Z673" s="6"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="10"/>
+      <c r="A674" s="11"/>
       <c r="B674" s="6"/>
       <c r="C674" s="6"/>
       <c r="D674" s="6"/>
@@ -19218,7 +19307,7 @@
       <c r="Z674" s="6"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="10"/>
+      <c r="A675" s="11"/>
       <c r="B675" s="6"/>
       <c r="C675" s="6"/>
       <c r="D675" s="6"/>
@@ -19246,7 +19335,7 @@
       <c r="Z675" s="6"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="10"/>
+      <c r="A676" s="11"/>
       <c r="B676" s="6"/>
       <c r="C676" s="6"/>
       <c r="D676" s="6"/>
@@ -19274,7 +19363,7 @@
       <c r="Z676" s="6"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="10"/>
+      <c r="A677" s="11"/>
       <c r="B677" s="6"/>
       <c r="C677" s="6"/>
       <c r="D677" s="6"/>
@@ -19302,7 +19391,7 @@
       <c r="Z677" s="6"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="10"/>
+      <c r="A678" s="11"/>
       <c r="B678" s="6"/>
       <c r="C678" s="6"/>
       <c r="D678" s="6"/>
@@ -19330,7 +19419,7 @@
       <c r="Z678" s="6"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="10"/>
+      <c r="A679" s="11"/>
       <c r="B679" s="6"/>
       <c r="C679" s="6"/>
       <c r="D679" s="6"/>
@@ -19358,7 +19447,7 @@
       <c r="Z679" s="6"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="10"/>
+      <c r="A680" s="11"/>
       <c r="B680" s="6"/>
       <c r="C680" s="6"/>
       <c r="D680" s="6"/>
@@ -19386,7 +19475,7 @@
       <c r="Z680" s="6"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="10"/>
+      <c r="A681" s="11"/>
       <c r="B681" s="6"/>
       <c r="C681" s="6"/>
       <c r="D681" s="6"/>
@@ -19414,7 +19503,7 @@
       <c r="Z681" s="6"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="10"/>
+      <c r="A682" s="11"/>
       <c r="B682" s="6"/>
       <c r="C682" s="6"/>
       <c r="D682" s="6"/>
@@ -19442,7 +19531,7 @@
       <c r="Z682" s="6"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="10"/>
+      <c r="A683" s="11"/>
       <c r="B683" s="6"/>
       <c r="C683" s="6"/>
       <c r="D683" s="6"/>
@@ -19470,7 +19559,7 @@
       <c r="Z683" s="6"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="10"/>
+      <c r="A684" s="11"/>
       <c r="B684" s="6"/>
       <c r="C684" s="6"/>
       <c r="D684" s="6"/>
@@ -19498,7 +19587,7 @@
       <c r="Z684" s="6"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="10"/>
+      <c r="A685" s="11"/>
       <c r="B685" s="6"/>
       <c r="C685" s="6"/>
       <c r="D685" s="6"/>
@@ -19526,7 +19615,7 @@
       <c r="Z685" s="6"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="10"/>
+      <c r="A686" s="11"/>
       <c r="B686" s="6"/>
       <c r="C686" s="6"/>
       <c r="D686" s="6"/>
@@ -19554,7 +19643,7 @@
       <c r="Z686" s="6"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="10"/>
+      <c r="A687" s="11"/>
       <c r="B687" s="6"/>
       <c r="C687" s="6"/>
       <c r="D687" s="6"/>
@@ -19582,7 +19671,7 @@
       <c r="Z687" s="6"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="10"/>
+      <c r="A688" s="11"/>
       <c r="B688" s="6"/>
       <c r="C688" s="6"/>
       <c r="D688" s="6"/>
@@ -19610,7 +19699,7 @@
       <c r="Z688" s="6"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="10"/>
+      <c r="A689" s="11"/>
       <c r="B689" s="6"/>
       <c r="C689" s="6"/>
       <c r="D689" s="6"/>
@@ -19638,7 +19727,7 @@
       <c r="Z689" s="6"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="10"/>
+      <c r="A690" s="11"/>
       <c r="B690" s="6"/>
       <c r="C690" s="6"/>
       <c r="D690" s="6"/>
@@ -19666,7 +19755,7 @@
       <c r="Z690" s="6"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="10"/>
+      <c r="A691" s="11"/>
       <c r="B691" s="6"/>
       <c r="C691" s="6"/>
       <c r="D691" s="6"/>
@@ -19694,7 +19783,7 @@
       <c r="Z691" s="6"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="10"/>
+      <c r="A692" s="11"/>
       <c r="B692" s="6"/>
       <c r="C692" s="6"/>
       <c r="D692" s="6"/>
@@ -19722,7 +19811,7 @@
       <c r="Z692" s="6"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="10"/>
+      <c r="A693" s="11"/>
       <c r="B693" s="6"/>
       <c r="C693" s="6"/>
       <c r="D693" s="6"/>
@@ -19750,7 +19839,7 @@
       <c r="Z693" s="6"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="10"/>
+      <c r="A694" s="11"/>
       <c r="B694" s="6"/>
       <c r="C694" s="6"/>
       <c r="D694" s="6"/>
@@ -19778,7 +19867,7 @@
       <c r="Z694" s="6"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="10"/>
+      <c r="A695" s="11"/>
       <c r="B695" s="6"/>
       <c r="C695" s="6"/>
       <c r="D695" s="6"/>
@@ -19806,7 +19895,7 @@
       <c r="Z695" s="6"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="10"/>
+      <c r="A696" s="11"/>
       <c r="B696" s="6"/>
       <c r="C696" s="6"/>
       <c r="D696" s="6"/>
@@ -19834,7 +19923,7 @@
       <c r="Z696" s="6"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="10"/>
+      <c r="A697" s="11"/>
       <c r="B697" s="6"/>
       <c r="C697" s="6"/>
       <c r="D697" s="6"/>
@@ -19862,7 +19951,7 @@
       <c r="Z697" s="6"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="10"/>
+      <c r="A698" s="11"/>
       <c r="B698" s="6"/>
       <c r="C698" s="6"/>
       <c r="D698" s="6"/>
@@ -19890,7 +19979,7 @@
       <c r="Z698" s="6"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="10"/>
+      <c r="A699" s="11"/>
       <c r="B699" s="6"/>
       <c r="C699" s="6"/>
       <c r="D699" s="6"/>
@@ -19918,7 +20007,7 @@
       <c r="Z699" s="6"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="10"/>
+      <c r="A700" s="11"/>
       <c r="B700" s="6"/>
       <c r="C700" s="6"/>
       <c r="D700" s="6"/>
@@ -19946,7 +20035,7 @@
       <c r="Z700" s="6"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="10"/>
+      <c r="A701" s="11"/>
       <c r="B701" s="6"/>
       <c r="C701" s="6"/>
       <c r="D701" s="6"/>
@@ -19974,7 +20063,7 @@
       <c r="Z701" s="6"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="10"/>
+      <c r="A702" s="11"/>
       <c r="B702" s="6"/>
       <c r="C702" s="6"/>
       <c r="D702" s="6"/>
@@ -20002,7 +20091,7 @@
       <c r="Z702" s="6"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="10"/>
+      <c r="A703" s="11"/>
       <c r="B703" s="6"/>
       <c r="C703" s="6"/>
       <c r="D703" s="6"/>
@@ -20030,7 +20119,7 @@
       <c r="Z703" s="6"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="10"/>
+      <c r="A704" s="11"/>
       <c r="B704" s="6"/>
       <c r="C704" s="6"/>
       <c r="D704" s="6"/>
@@ -20058,7 +20147,7 @@
       <c r="Z704" s="6"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="10"/>
+      <c r="A705" s="11"/>
       <c r="B705" s="6"/>
       <c r="C705" s="6"/>
       <c r="D705" s="6"/>
@@ -20086,7 +20175,7 @@
       <c r="Z705" s="6"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="10"/>
+      <c r="A706" s="11"/>
       <c r="B706" s="6"/>
       <c r="C706" s="6"/>
       <c r="D706" s="6"/>
@@ -20114,7 +20203,7 @@
       <c r="Z706" s="6"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="10"/>
+      <c r="A707" s="11"/>
       <c r="B707" s="6"/>
       <c r="C707" s="6"/>
       <c r="D707" s="6"/>
@@ -20142,7 +20231,7 @@
       <c r="Z707" s="6"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="10"/>
+      <c r="A708" s="11"/>
       <c r="B708" s="6"/>
       <c r="C708" s="6"/>
       <c r="D708" s="6"/>
@@ -20170,7 +20259,7 @@
       <c r="Z708" s="6"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="10"/>
+      <c r="A709" s="11"/>
       <c r="B709" s="6"/>
       <c r="C709" s="6"/>
       <c r="D709" s="6"/>
@@ -20198,7 +20287,7 @@
       <c r="Z709" s="6"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="10"/>
+      <c r="A710" s="11"/>
       <c r="B710" s="6"/>
       <c r="C710" s="6"/>
       <c r="D710" s="6"/>
@@ -20226,7 +20315,7 @@
       <c r="Z710" s="6"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="10"/>
+      <c r="A711" s="11"/>
       <c r="B711" s="6"/>
       <c r="C711" s="6"/>
       <c r="D711" s="6"/>
@@ -20254,7 +20343,7 @@
       <c r="Z711" s="6"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="10"/>
+      <c r="A712" s="11"/>
       <c r="B712" s="6"/>
       <c r="C712" s="6"/>
       <c r="D712" s="6"/>
@@ -20282,7 +20371,7 @@
       <c r="Z712" s="6"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="10"/>
+      <c r="A713" s="11"/>
       <c r="B713" s="6"/>
       <c r="C713" s="6"/>
       <c r="D713" s="6"/>
@@ -20310,7 +20399,7 @@
       <c r="Z713" s="6"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="10"/>
+      <c r="A714" s="11"/>
       <c r="B714" s="6"/>
       <c r="C714" s="6"/>
       <c r="D714" s="6"/>
@@ -20338,7 +20427,7 @@
       <c r="Z714" s="6"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="10"/>
+      <c r="A715" s="11"/>
       <c r="B715" s="6"/>
       <c r="C715" s="6"/>
       <c r="D715" s="6"/>
@@ -20366,7 +20455,7 @@
       <c r="Z715" s="6"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="10"/>
+      <c r="A716" s="11"/>
       <c r="B716" s="6"/>
       <c r="C716" s="6"/>
       <c r="D716" s="6"/>
@@ -20394,7 +20483,7 @@
       <c r="Z716" s="6"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="10"/>
+      <c r="A717" s="11"/>
       <c r="B717" s="6"/>
       <c r="C717" s="6"/>
       <c r="D717" s="6"/>
@@ -20422,7 +20511,7 @@
       <c r="Z717" s="6"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="10"/>
+      <c r="A718" s="11"/>
       <c r="B718" s="6"/>
       <c r="C718" s="6"/>
       <c r="D718" s="6"/>
@@ -20450,7 +20539,7 @@
       <c r="Z718" s="6"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="10"/>
+      <c r="A719" s="11"/>
       <c r="B719" s="6"/>
       <c r="C719" s="6"/>
       <c r="D719" s="6"/>
@@ -20478,7 +20567,7 @@
       <c r="Z719" s="6"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="10"/>
+      <c r="A720" s="11"/>
       <c r="B720" s="6"/>
       <c r="C720" s="6"/>
       <c r="D720" s="6"/>
@@ -20506,7 +20595,7 @@
       <c r="Z720" s="6"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="10"/>
+      <c r="A721" s="11"/>
       <c r="B721" s="6"/>
       <c r="C721" s="6"/>
       <c r="D721" s="6"/>
@@ -20534,7 +20623,7 @@
       <c r="Z721" s="6"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="10"/>
+      <c r="A722" s="11"/>
       <c r="B722" s="6"/>
       <c r="C722" s="6"/>
       <c r="D722" s="6"/>
@@ -20562,7 +20651,7 @@
       <c r="Z722" s="6"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="10"/>
+      <c r="A723" s="11"/>
       <c r="B723" s="6"/>
       <c r="C723" s="6"/>
       <c r="D723" s="6"/>
@@ -20590,7 +20679,7 @@
       <c r="Z723" s="6"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="10"/>
+      <c r="A724" s="11"/>
       <c r="B724" s="6"/>
       <c r="C724" s="6"/>
       <c r="D724" s="6"/>
@@ -20618,7 +20707,7 @@
       <c r="Z724" s="6"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="10"/>
+      <c r="A725" s="11"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
       <c r="D725" s="6"/>
@@ -20646,7 +20735,7 @@
       <c r="Z725" s="6"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="10"/>
+      <c r="A726" s="11"/>
       <c r="B726" s="6"/>
       <c r="C726" s="6"/>
       <c r="D726" s="6"/>
@@ -20674,7 +20763,7 @@
       <c r="Z726" s="6"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="10"/>
+      <c r="A727" s="11"/>
       <c r="B727" s="6"/>
       <c r="C727" s="6"/>
       <c r="D727" s="6"/>
@@ -20702,7 +20791,7 @@
       <c r="Z727" s="6"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="10"/>
+      <c r="A728" s="11"/>
       <c r="B728" s="6"/>
       <c r="C728" s="6"/>
       <c r="D728" s="6"/>
@@ -20730,7 +20819,7 @@
       <c r="Z728" s="6"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="10"/>
+      <c r="A729" s="11"/>
       <c r="B729" s="6"/>
       <c r="C729" s="6"/>
       <c r="D729" s="6"/>
@@ -20758,7 +20847,7 @@
       <c r="Z729" s="6"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="10"/>
+      <c r="A730" s="11"/>
       <c r="B730" s="6"/>
       <c r="C730" s="6"/>
       <c r="D730" s="6"/>
@@ -20786,7 +20875,7 @@
       <c r="Z730" s="6"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="10"/>
+      <c r="A731" s="11"/>
       <c r="B731" s="6"/>
       <c r="C731" s="6"/>
       <c r="D731" s="6"/>
@@ -20814,7 +20903,7 @@
       <c r="Z731" s="6"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="10"/>
+      <c r="A732" s="11"/>
       <c r="B732" s="6"/>
       <c r="C732" s="6"/>
       <c r="D732" s="6"/>
@@ -20842,7 +20931,7 @@
       <c r="Z732" s="6"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="10"/>
+      <c r="A733" s="11"/>
       <c r="B733" s="6"/>
       <c r="C733" s="6"/>
       <c r="D733" s="6"/>
@@ -20870,7 +20959,7 @@
       <c r="Z733" s="6"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="10"/>
+      <c r="A734" s="11"/>
       <c r="B734" s="6"/>
       <c r="C734" s="6"/>
       <c r="D734" s="6"/>
@@ -20898,7 +20987,7 @@
       <c r="Z734" s="6"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="10"/>
+      <c r="A735" s="11"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6"/>
       <c r="D735" s="6"/>
@@ -20926,7 +21015,7 @@
       <c r="Z735" s="6"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="10"/>
+      <c r="A736" s="11"/>
       <c r="B736" s="6"/>
       <c r="C736" s="6"/>
       <c r="D736" s="6"/>
@@ -20954,7 +21043,7 @@
       <c r="Z736" s="6"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="10"/>
+      <c r="A737" s="11"/>
       <c r="B737" s="6"/>
       <c r="C737" s="6"/>
       <c r="D737" s="6"/>
@@ -20982,7 +21071,7 @@
       <c r="Z737" s="6"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="10"/>
+      <c r="A738" s="11"/>
       <c r="B738" s="6"/>
       <c r="C738" s="6"/>
       <c r="D738" s="6"/>
@@ -21010,7 +21099,7 @@
       <c r="Z738" s="6"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="10"/>
+      <c r="A739" s="11"/>
       <c r="B739" s="6"/>
       <c r="C739" s="6"/>
       <c r="D739" s="6"/>
@@ -21038,7 +21127,7 @@
       <c r="Z739" s="6"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="10"/>
+      <c r="A740" s="11"/>
       <c r="B740" s="6"/>
       <c r="C740" s="6"/>
       <c r="D740" s="6"/>
@@ -21066,7 +21155,7 @@
       <c r="Z740" s="6"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="10"/>
+      <c r="A741" s="11"/>
       <c r="B741" s="6"/>
       <c r="C741" s="6"/>
       <c r="D741" s="6"/>
@@ -21094,7 +21183,7 @@
       <c r="Z741" s="6"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="10"/>
+      <c r="A742" s="11"/>
       <c r="B742" s="6"/>
       <c r="C742" s="6"/>
       <c r="D742" s="6"/>
@@ -21122,7 +21211,7 @@
       <c r="Z742" s="6"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="10"/>
+      <c r="A743" s="11"/>
       <c r="B743" s="6"/>
       <c r="C743" s="6"/>
       <c r="D743" s="6"/>
@@ -21150,7 +21239,7 @@
       <c r="Z743" s="6"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="10"/>
+      <c r="A744" s="11"/>
       <c r="B744" s="6"/>
       <c r="C744" s="6"/>
       <c r="D744" s="6"/>
@@ -21178,7 +21267,7 @@
       <c r="Z744" s="6"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="10"/>
+      <c r="A745" s="11"/>
       <c r="B745" s="6"/>
       <c r="C745" s="6"/>
       <c r="D745" s="6"/>
@@ -21206,7 +21295,7 @@
       <c r="Z745" s="6"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="10"/>
+      <c r="A746" s="11"/>
       <c r="B746" s="6"/>
       <c r="C746" s="6"/>
       <c r="D746" s="6"/>
@@ -21234,7 +21323,7 @@
       <c r="Z746" s="6"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="10"/>
+      <c r="A747" s="11"/>
       <c r="B747" s="6"/>
       <c r="C747" s="6"/>
       <c r="D747" s="6"/>
@@ -21262,7 +21351,7 @@
       <c r="Z747" s="6"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="10"/>
+      <c r="A748" s="11"/>
       <c r="B748" s="6"/>
       <c r="C748" s="6"/>
       <c r="D748" s="6"/>
@@ -21290,7 +21379,7 @@
       <c r="Z748" s="6"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="10"/>
+      <c r="A749" s="11"/>
       <c r="B749" s="6"/>
       <c r="C749" s="6"/>
       <c r="D749" s="6"/>
@@ -21318,7 +21407,7 @@
       <c r="Z749" s="6"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="10"/>
+      <c r="A750" s="11"/>
       <c r="B750" s="6"/>
       <c r="C750" s="6"/>
       <c r="D750" s="6"/>
@@ -21346,7 +21435,7 @@
       <c r="Z750" s="6"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="10"/>
+      <c r="A751" s="11"/>
       <c r="B751" s="6"/>
       <c r="C751" s="6"/>
       <c r="D751" s="6"/>
@@ -21374,7 +21463,7 @@
       <c r="Z751" s="6"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="10"/>
+      <c r="A752" s="11"/>
       <c r="B752" s="6"/>
       <c r="C752" s="6"/>
       <c r="D752" s="6"/>
@@ -21402,7 +21491,7 @@
       <c r="Z752" s="6"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="10"/>
+      <c r="A753" s="11"/>
       <c r="B753" s="6"/>
       <c r="C753" s="6"/>
       <c r="D753" s="6"/>
@@ -21430,7 +21519,7 @@
       <c r="Z753" s="6"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="10"/>
+      <c r="A754" s="11"/>
       <c r="B754" s="6"/>
       <c r="C754" s="6"/>
       <c r="D754" s="6"/>
@@ -21458,7 +21547,7 @@
       <c r="Z754" s="6"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="10"/>
+      <c r="A755" s="11"/>
       <c r="B755" s="6"/>
       <c r="C755" s="6"/>
       <c r="D755" s="6"/>
@@ -21486,7 +21575,7 @@
       <c r="Z755" s="6"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="10"/>
+      <c r="A756" s="11"/>
       <c r="B756" s="6"/>
       <c r="C756" s="6"/>
       <c r="D756" s="6"/>
@@ -21514,7 +21603,7 @@
       <c r="Z756" s="6"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="10"/>
+      <c r="A757" s="11"/>
       <c r="B757" s="6"/>
       <c r="C757" s="6"/>
       <c r="D757" s="6"/>
@@ -21542,7 +21631,7 @@
       <c r="Z757" s="6"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="10"/>
+      <c r="A758" s="11"/>
       <c r="B758" s="6"/>
       <c r="C758" s="6"/>
       <c r="D758" s="6"/>
@@ -21570,7 +21659,7 @@
       <c r="Z758" s="6"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="10"/>
+      <c r="A759" s="11"/>
       <c r="B759" s="6"/>
       <c r="C759" s="6"/>
       <c r="D759" s="6"/>
@@ -21598,7 +21687,7 @@
       <c r="Z759" s="6"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="10"/>
+      <c r="A760" s="11"/>
       <c r="B760" s="6"/>
       <c r="C760" s="6"/>
       <c r="D760" s="6"/>
@@ -21626,7 +21715,7 @@
       <c r="Z760" s="6"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="10"/>
+      <c r="A761" s="11"/>
       <c r="B761" s="6"/>
       <c r="C761" s="6"/>
       <c r="D761" s="6"/>
@@ -21654,7 +21743,7 @@
       <c r="Z761" s="6"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="10"/>
+      <c r="A762" s="11"/>
       <c r="B762" s="6"/>
       <c r="C762" s="6"/>
       <c r="D762" s="6"/>
@@ -21682,7 +21771,7 @@
       <c r="Z762" s="6"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="10"/>
+      <c r="A763" s="11"/>
       <c r="B763" s="6"/>
       <c r="C763" s="6"/>
       <c r="D763" s="6"/>
@@ -21710,7 +21799,7 @@
       <c r="Z763" s="6"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="10"/>
+      <c r="A764" s="11"/>
       <c r="B764" s="6"/>
       <c r="C764" s="6"/>
       <c r="D764" s="6"/>
@@ -21738,7 +21827,7 @@
       <c r="Z764" s="6"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="10"/>
+      <c r="A765" s="11"/>
       <c r="B765" s="6"/>
       <c r="C765" s="6"/>
       <c r="D765" s="6"/>
@@ -21766,7 +21855,7 @@
       <c r="Z765" s="6"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="10"/>
+      <c r="A766" s="11"/>
       <c r="B766" s="6"/>
       <c r="C766" s="6"/>
       <c r="D766" s="6"/>
@@ -21794,7 +21883,7 @@
       <c r="Z766" s="6"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="10"/>
+      <c r="A767" s="11"/>
       <c r="B767" s="6"/>
       <c r="C767" s="6"/>
       <c r="D767" s="6"/>
@@ -21822,7 +21911,7 @@
       <c r="Z767" s="6"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="10"/>
+      <c r="A768" s="11"/>
       <c r="B768" s="6"/>
       <c r="C768" s="6"/>
       <c r="D768" s="6"/>
@@ -21850,7 +21939,7 @@
       <c r="Z768" s="6"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="10"/>
+      <c r="A769" s="11"/>
       <c r="B769" s="6"/>
       <c r="C769" s="6"/>
       <c r="D769" s="6"/>
@@ -21878,7 +21967,7 @@
       <c r="Z769" s="6"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="10"/>
+      <c r="A770" s="11"/>
       <c r="B770" s="6"/>
       <c r="C770" s="6"/>
       <c r="D770" s="6"/>
@@ -21906,7 +21995,7 @@
       <c r="Z770" s="6"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="10"/>
+      <c r="A771" s="11"/>
       <c r="B771" s="6"/>
       <c r="C771" s="6"/>
       <c r="D771" s="6"/>
@@ -21934,7 +22023,7 @@
       <c r="Z771" s="6"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="10"/>
+      <c r="A772" s="11"/>
       <c r="B772" s="6"/>
       <c r="C772" s="6"/>
       <c r="D772" s="6"/>
@@ -21962,7 +22051,7 @@
       <c r="Z772" s="6"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="10"/>
+      <c r="A773" s="11"/>
       <c r="B773" s="6"/>
       <c r="C773" s="6"/>
       <c r="D773" s="6"/>
@@ -21990,7 +22079,7 @@
       <c r="Z773" s="6"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="10"/>
+      <c r="A774" s="11"/>
       <c r="B774" s="6"/>
       <c r="C774" s="6"/>
       <c r="D774" s="6"/>
@@ -22018,7 +22107,7 @@
       <c r="Z774" s="6"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="10"/>
+      <c r="A775" s="11"/>
       <c r="B775" s="6"/>
       <c r="C775" s="6"/>
       <c r="D775" s="6"/>
@@ -22046,7 +22135,7 @@
       <c r="Z775" s="6"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="10"/>
+      <c r="A776" s="11"/>
       <c r="B776" s="6"/>
       <c r="C776" s="6"/>
       <c r="D776" s="6"/>
@@ -22074,7 +22163,7 @@
       <c r="Z776" s="6"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="10"/>
+      <c r="A777" s="11"/>
       <c r="B777" s="6"/>
       <c r="C777" s="6"/>
       <c r="D777" s="6"/>
@@ -22102,7 +22191,7 @@
       <c r="Z777" s="6"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="10"/>
+      <c r="A778" s="11"/>
       <c r="B778" s="6"/>
       <c r="C778" s="6"/>
       <c r="D778" s="6"/>
@@ -22130,7 +22219,7 @@
       <c r="Z778" s="6"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="10"/>
+      <c r="A779" s="11"/>
       <c r="B779" s="6"/>
       <c r="C779" s="6"/>
       <c r="D779" s="6"/>
@@ -22158,7 +22247,7 @@
       <c r="Z779" s="6"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="10"/>
+      <c r="A780" s="11"/>
       <c r="B780" s="6"/>
       <c r="C780" s="6"/>
       <c r="D780" s="6"/>
@@ -22186,7 +22275,7 @@
       <c r="Z780" s="6"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="10"/>
+      <c r="A781" s="11"/>
       <c r="B781" s="6"/>
       <c r="C781" s="6"/>
       <c r="D781" s="6"/>
@@ -22214,7 +22303,7 @@
       <c r="Z781" s="6"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="10"/>
+      <c r="A782" s="11"/>
       <c r="B782" s="6"/>
       <c r="C782" s="6"/>
       <c r="D782" s="6"/>
@@ -22242,7 +22331,7 @@
       <c r="Z782" s="6"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="10"/>
+      <c r="A783" s="11"/>
       <c r="B783" s="6"/>
       <c r="C783" s="6"/>
       <c r="D783" s="6"/>
@@ -22270,7 +22359,7 @@
       <c r="Z783" s="6"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="10"/>
+      <c r="A784" s="11"/>
       <c r="B784" s="6"/>
       <c r="C784" s="6"/>
       <c r="D784" s="6"/>
@@ -22298,7 +22387,7 @@
       <c r="Z784" s="6"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="10"/>
+      <c r="A785" s="11"/>
       <c r="B785" s="6"/>
       <c r="C785" s="6"/>
       <c r="D785" s="6"/>
@@ -22326,7 +22415,7 @@
       <c r="Z785" s="6"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="10"/>
+      <c r="A786" s="11"/>
       <c r="B786" s="6"/>
       <c r="C786" s="6"/>
       <c r="D786" s="6"/>
@@ -22354,7 +22443,7 @@
       <c r="Z786" s="6"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="10"/>
+      <c r="A787" s="11"/>
       <c r="B787" s="6"/>
       <c r="C787" s="6"/>
       <c r="D787" s="6"/>
@@ -22382,7 +22471,7 @@
       <c r="Z787" s="6"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="10"/>
+      <c r="A788" s="11"/>
       <c r="B788" s="6"/>
       <c r="C788" s="6"/>
       <c r="D788" s="6"/>
@@ -22410,7 +22499,7 @@
       <c r="Z788" s="6"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="10"/>
+      <c r="A789" s="11"/>
       <c r="B789" s="6"/>
       <c r="C789" s="6"/>
       <c r="D789" s="6"/>
@@ -22438,7 +22527,7 @@
       <c r="Z789" s="6"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="10"/>
+      <c r="A790" s="11"/>
       <c r="B790" s="6"/>
       <c r="C790" s="6"/>
       <c r="D790" s="6"/>
@@ -22466,7 +22555,7 @@
       <c r="Z790" s="6"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="10"/>
+      <c r="A791" s="11"/>
       <c r="B791" s="6"/>
       <c r="C791" s="6"/>
       <c r="D791" s="6"/>
@@ -22494,7 +22583,7 @@
       <c r="Z791" s="6"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="10"/>
+      <c r="A792" s="11"/>
       <c r="B792" s="6"/>
       <c r="C792" s="6"/>
       <c r="D792" s="6"/>
@@ -22522,7 +22611,7 @@
       <c r="Z792" s="6"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="10"/>
+      <c r="A793" s="11"/>
       <c r="B793" s="6"/>
       <c r="C793" s="6"/>
       <c r="D793" s="6"/>
@@ -22550,7 +22639,7 @@
       <c r="Z793" s="6"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="10"/>
+      <c r="A794" s="11"/>
       <c r="B794" s="6"/>
       <c r="C794" s="6"/>
       <c r="D794" s="6"/>
@@ -22578,7 +22667,7 @@
       <c r="Z794" s="6"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="10"/>
+      <c r="A795" s="11"/>
       <c r="B795" s="6"/>
       <c r="C795" s="6"/>
       <c r="D795" s="6"/>
@@ -22606,7 +22695,7 @@
       <c r="Z795" s="6"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="10"/>
+      <c r="A796" s="11"/>
       <c r="B796" s="6"/>
       <c r="C796" s="6"/>
       <c r="D796" s="6"/>
@@ -22634,7 +22723,7 @@
       <c r="Z796" s="6"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="10"/>
+      <c r="A797" s="11"/>
       <c r="B797" s="6"/>
       <c r="C797" s="6"/>
       <c r="D797" s="6"/>
@@ -22662,7 +22751,7 @@
       <c r="Z797" s="6"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="10"/>
+      <c r="A798" s="11"/>
       <c r="B798" s="6"/>
       <c r="C798" s="6"/>
       <c r="D798" s="6"/>
@@ -22690,7 +22779,7 @@
       <c r="Z798" s="6"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="10"/>
+      <c r="A799" s="11"/>
       <c r="B799" s="6"/>
       <c r="C799" s="6"/>
       <c r="D799" s="6"/>
@@ -22718,7 +22807,7 @@
       <c r="Z799" s="6"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="10"/>
+      <c r="A800" s="11"/>
       <c r="B800" s="6"/>
       <c r="C800" s="6"/>
       <c r="D800" s="6"/>
@@ -22746,7 +22835,7 @@
       <c r="Z800" s="6"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="10"/>
+      <c r="A801" s="11"/>
       <c r="B801" s="6"/>
       <c r="C801" s="6"/>
       <c r="D801" s="6"/>
@@ -22774,7 +22863,7 @@
       <c r="Z801" s="6"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="10"/>
+      <c r="A802" s="11"/>
       <c r="B802" s="6"/>
       <c r="C802" s="6"/>
       <c r="D802" s="6"/>
@@ -22802,7 +22891,7 @@
       <c r="Z802" s="6"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="10"/>
+      <c r="A803" s="11"/>
       <c r="B803" s="6"/>
       <c r="C803" s="6"/>
       <c r="D803" s="6"/>
@@ -22830,7 +22919,7 @@
       <c r="Z803" s="6"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="10"/>
+      <c r="A804" s="11"/>
       <c r="B804" s="6"/>
       <c r="C804" s="6"/>
       <c r="D804" s="6"/>
@@ -22858,7 +22947,7 @@
       <c r="Z804" s="6"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="10"/>
+      <c r="A805" s="11"/>
       <c r="B805" s="6"/>
       <c r="C805" s="6"/>
       <c r="D805" s="6"/>
@@ -22886,7 +22975,7 @@
       <c r="Z805" s="6"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="10"/>
+      <c r="A806" s="11"/>
       <c r="B806" s="6"/>
       <c r="C806" s="6"/>
       <c r="D806" s="6"/>
@@ -22914,7 +23003,7 @@
       <c r="Z806" s="6"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="10"/>
+      <c r="A807" s="11"/>
       <c r="B807" s="6"/>
       <c r="C807" s="6"/>
       <c r="D807" s="6"/>
@@ -22942,7 +23031,7 @@
       <c r="Z807" s="6"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="10"/>
+      <c r="A808" s="11"/>
       <c r="B808" s="6"/>
       <c r="C808" s="6"/>
       <c r="D808" s="6"/>
@@ -22970,7 +23059,7 @@
       <c r="Z808" s="6"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="10"/>
+      <c r="A809" s="11"/>
       <c r="B809" s="6"/>
       <c r="C809" s="6"/>
       <c r="D809" s="6"/>
@@ -22998,7 +23087,7 @@
       <c r="Z809" s="6"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="10"/>
+      <c r="A810" s="11"/>
       <c r="B810" s="6"/>
       <c r="C810" s="6"/>
       <c r="D810" s="6"/>
@@ -23026,7 +23115,7 @@
       <c r="Z810" s="6"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="10"/>
+      <c r="A811" s="11"/>
       <c r="B811" s="6"/>
       <c r="C811" s="6"/>
       <c r="D811" s="6"/>
@@ -23054,7 +23143,7 @@
       <c r="Z811" s="6"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="10"/>
+      <c r="A812" s="11"/>
       <c r="B812" s="6"/>
       <c r="C812" s="6"/>
       <c r="D812" s="6"/>
@@ -23082,7 +23171,7 @@
       <c r="Z812" s="6"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="10"/>
+      <c r="A813" s="11"/>
       <c r="B813" s="6"/>
       <c r="C813" s="6"/>
       <c r="D813" s="6"/>
@@ -23110,7 +23199,7 @@
       <c r="Z813" s="6"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="10"/>
+      <c r="A814" s="11"/>
       <c r="B814" s="6"/>
       <c r="C814" s="6"/>
       <c r="D814" s="6"/>
@@ -23138,7 +23227,7 @@
       <c r="Z814" s="6"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="10"/>
+      <c r="A815" s="11"/>
       <c r="B815" s="6"/>
       <c r="C815" s="6"/>
       <c r="D815" s="6"/>
@@ -23166,7 +23255,7 @@
       <c r="Z815" s="6"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="10"/>
+      <c r="A816" s="11"/>
       <c r="B816" s="6"/>
       <c r="C816" s="6"/>
       <c r="D816" s="6"/>
@@ -23194,7 +23283,7 @@
       <c r="Z816" s="6"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="10"/>
+      <c r="A817" s="11"/>
       <c r="B817" s="6"/>
       <c r="C817" s="6"/>
       <c r="D817" s="6"/>
@@ -23222,7 +23311,7 @@
       <c r="Z817" s="6"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="10"/>
+      <c r="A818" s="11"/>
       <c r="B818" s="6"/>
       <c r="C818" s="6"/>
       <c r="D818" s="6"/>
@@ -23250,7 +23339,7 @@
       <c r="Z818" s="6"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="10"/>
+      <c r="A819" s="11"/>
       <c r="B819" s="6"/>
       <c r="C819" s="6"/>
       <c r="D819" s="6"/>
@@ -23278,7 +23367,7 @@
       <c r="Z819" s="6"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="10"/>
+      <c r="A820" s="11"/>
       <c r="B820" s="6"/>
       <c r="C820" s="6"/>
       <c r="D820" s="6"/>
@@ -23306,7 +23395,7 @@
       <c r="Z820" s="6"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="10"/>
+      <c r="A821" s="11"/>
       <c r="B821" s="6"/>
       <c r="C821" s="6"/>
       <c r="D821" s="6"/>
@@ -23334,7 +23423,7 @@
       <c r="Z821" s="6"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="10"/>
+      <c r="A822" s="11"/>
       <c r="B822" s="6"/>
       <c r="C822" s="6"/>
       <c r="D822" s="6"/>
@@ -23362,7 +23451,7 @@
       <c r="Z822" s="6"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="10"/>
+      <c r="A823" s="11"/>
       <c r="B823" s="6"/>
       <c r="C823" s="6"/>
       <c r="D823" s="6"/>
@@ -23390,7 +23479,7 @@
       <c r="Z823" s="6"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="10"/>
+      <c r="A824" s="11"/>
       <c r="B824" s="6"/>
       <c r="C824" s="6"/>
       <c r="D824" s="6"/>
@@ -23418,7 +23507,7 @@
       <c r="Z824" s="6"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="10"/>
+      <c r="A825" s="11"/>
       <c r="B825" s="6"/>
       <c r="C825" s="6"/>
       <c r="D825" s="6"/>
@@ -23446,7 +23535,7 @@
       <c r="Z825" s="6"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="10"/>
+      <c r="A826" s="11"/>
       <c r="B826" s="6"/>
       <c r="C826" s="6"/>
       <c r="D826" s="6"/>
@@ -23474,7 +23563,7 @@
       <c r="Z826" s="6"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="10"/>
+      <c r="A827" s="11"/>
       <c r="B827" s="6"/>
       <c r="C827" s="6"/>
       <c r="D827" s="6"/>
@@ -23502,7 +23591,7 @@
       <c r="Z827" s="6"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="10"/>
+      <c r="A828" s="11"/>
       <c r="B828" s="6"/>
       <c r="C828" s="6"/>
       <c r="D828" s="6"/>
@@ -23530,7 +23619,7 @@
       <c r="Z828" s="6"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="10"/>
+      <c r="A829" s="11"/>
       <c r="B829" s="6"/>
       <c r="C829" s="6"/>
       <c r="D829" s="6"/>
@@ -23558,7 +23647,7 @@
       <c r="Z829" s="6"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="10"/>
+      <c r="A830" s="11"/>
       <c r="B830" s="6"/>
       <c r="C830" s="6"/>
       <c r="D830" s="6"/>
@@ -23586,7 +23675,7 @@
       <c r="Z830" s="6"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="10"/>
+      <c r="A831" s="11"/>
       <c r="B831" s="6"/>
       <c r="C831" s="6"/>
       <c r="D831" s="6"/>
@@ -23614,7 +23703,7 @@
       <c r="Z831" s="6"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="10"/>
+      <c r="A832" s="11"/>
       <c r="B832" s="6"/>
       <c r="C832" s="6"/>
       <c r="D832" s="6"/>
@@ -23642,7 +23731,7 @@
       <c r="Z832" s="6"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="10"/>
+      <c r="A833" s="11"/>
       <c r="B833" s="6"/>
       <c r="C833" s="6"/>
       <c r="D833" s="6"/>
@@ -23670,7 +23759,7 @@
       <c r="Z833" s="6"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="10"/>
+      <c r="A834" s="11"/>
       <c r="B834" s="6"/>
       <c r="C834" s="6"/>
       <c r="D834" s="6"/>
@@ -23698,7 +23787,7 @@
       <c r="Z834" s="6"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="10"/>
+      <c r="A835" s="11"/>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
       <c r="D835" s="6"/>
@@ -23726,7 +23815,7 @@
       <c r="Z835" s="6"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="10"/>
+      <c r="A836" s="11"/>
       <c r="B836" s="6"/>
       <c r="C836" s="6"/>
       <c r="D836" s="6"/>
@@ -23754,7 +23843,7 @@
       <c r="Z836" s="6"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="10"/>
+      <c r="A837" s="11"/>
       <c r="B837" s="6"/>
       <c r="C837" s="6"/>
       <c r="D837" s="6"/>
@@ -23782,7 +23871,7 @@
       <c r="Z837" s="6"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="10"/>
+      <c r="A838" s="11"/>
       <c r="B838" s="6"/>
       <c r="C838" s="6"/>
       <c r="D838" s="6"/>
@@ -23810,7 +23899,7 @@
       <c r="Z838" s="6"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="10"/>
+      <c r="A839" s="11"/>
       <c r="B839" s="6"/>
       <c r="C839" s="6"/>
       <c r="D839" s="6"/>
@@ -23838,7 +23927,7 @@
       <c r="Z839" s="6"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="10"/>
+      <c r="A840" s="11"/>
       <c r="B840" s="6"/>
       <c r="C840" s="6"/>
       <c r="D840" s="6"/>
@@ -23866,7 +23955,7 @@
       <c r="Z840" s="6"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="10"/>
+      <c r="A841" s="11"/>
       <c r="B841" s="6"/>
       <c r="C841" s="6"/>
       <c r="D841" s="6"/>
@@ -23894,7 +23983,7 @@
       <c r="Z841" s="6"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="10"/>
+      <c r="A842" s="11"/>
       <c r="B842" s="6"/>
       <c r="C842" s="6"/>
       <c r="D842" s="6"/>
@@ -23922,7 +24011,7 @@
       <c r="Z842" s="6"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="10"/>
+      <c r="A843" s="11"/>
       <c r="B843" s="6"/>
       <c r="C843" s="6"/>
       <c r="D843" s="6"/>
@@ -23950,7 +24039,7 @@
       <c r="Z843" s="6"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="10"/>
+      <c r="A844" s="11"/>
       <c r="B844" s="6"/>
       <c r="C844" s="6"/>
       <c r="D844" s="6"/>
@@ -23978,7 +24067,7 @@
       <c r="Z844" s="6"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="10"/>
+      <c r="A845" s="11"/>
       <c r="B845" s="6"/>
       <c r="C845" s="6"/>
       <c r="D845" s="6"/>
@@ -24006,7 +24095,7 @@
       <c r="Z845" s="6"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="10"/>
+      <c r="A846" s="11"/>
       <c r="B846" s="6"/>
       <c r="C846" s="6"/>
       <c r="D846" s="6"/>
@@ -24034,7 +24123,7 @@
       <c r="Z846" s="6"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="10"/>
+      <c r="A847" s="11"/>
       <c r="B847" s="6"/>
       <c r="C847" s="6"/>
       <c r="D847" s="6"/>
@@ -24062,7 +24151,7 @@
       <c r="Z847" s="6"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="10"/>
+      <c r="A848" s="11"/>
       <c r="B848" s="6"/>
       <c r="C848" s="6"/>
       <c r="D848" s="6"/>
@@ -24090,7 +24179,7 @@
       <c r="Z848" s="6"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="10"/>
+      <c r="A849" s="11"/>
       <c r="B849" s="6"/>
       <c r="C849" s="6"/>
       <c r="D849" s="6"/>
@@ -24118,7 +24207,7 @@
       <c r="Z849" s="6"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="10"/>
+      <c r="A850" s="11"/>
       <c r="B850" s="6"/>
       <c r="C850" s="6"/>
       <c r="D850" s="6"/>
@@ -24146,7 +24235,7 @@
       <c r="Z850" s="6"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="10"/>
+      <c r="A851" s="11"/>
       <c r="B851" s="6"/>
       <c r="C851" s="6"/>
       <c r="D851" s="6"/>
@@ -24174,7 +24263,7 @@
       <c r="Z851" s="6"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="10"/>
+      <c r="A852" s="11"/>
       <c r="B852" s="6"/>
       <c r="C852" s="6"/>
       <c r="D852" s="6"/>
@@ -24202,7 +24291,7 @@
       <c r="Z852" s="6"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="10"/>
+      <c r="A853" s="11"/>
       <c r="B853" s="6"/>
       <c r="C853" s="6"/>
       <c r="D853" s="6"/>
@@ -24230,7 +24319,7 @@
       <c r="Z853" s="6"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="10"/>
+      <c r="A854" s="11"/>
       <c r="B854" s="6"/>
       <c r="C854" s="6"/>
       <c r="D854" s="6"/>
@@ -24258,7 +24347,7 @@
       <c r="Z854" s="6"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="10"/>
+      <c r="A855" s="11"/>
       <c r="B855" s="6"/>
       <c r="C855" s="6"/>
       <c r="D855" s="6"/>
@@ -24286,7 +24375,7 @@
       <c r="Z855" s="6"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="10"/>
+      <c r="A856" s="11"/>
       <c r="B856" s="6"/>
       <c r="C856" s="6"/>
       <c r="D856" s="6"/>
@@ -24314,7 +24403,7 @@
       <c r="Z856" s="6"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="10"/>
+      <c r="A857" s="11"/>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
       <c r="D857" s="6"/>
@@ -24342,7 +24431,7 @@
       <c r="Z857" s="6"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="10"/>
+      <c r="A858" s="11"/>
       <c r="B858" s="6"/>
       <c r="C858" s="6"/>
       <c r="D858" s="6"/>
@@ -24370,7 +24459,7 @@
       <c r="Z858" s="6"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="10"/>
+      <c r="A859" s="11"/>
       <c r="B859" s="6"/>
       <c r="C859" s="6"/>
       <c r="D859" s="6"/>
@@ -24398,7 +24487,7 @@
       <c r="Z859" s="6"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="10"/>
+      <c r="A860" s="11"/>
       <c r="B860" s="6"/>
       <c r="C860" s="6"/>
       <c r="D860" s="6"/>
@@ -24426,7 +24515,7 @@
       <c r="Z860" s="6"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="10"/>
+      <c r="A861" s="11"/>
       <c r="B861" s="6"/>
       <c r="C861" s="6"/>
       <c r="D861" s="6"/>
@@ -24454,7 +24543,7 @@
       <c r="Z861" s="6"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="10"/>
+      <c r="A862" s="11"/>
       <c r="B862" s="6"/>
       <c r="C862" s="6"/>
       <c r="D862" s="6"/>
@@ -24482,7 +24571,7 @@
       <c r="Z862" s="6"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="10"/>
+      <c r="A863" s="11"/>
       <c r="B863" s="6"/>
       <c r="C863" s="6"/>
       <c r="D863" s="6"/>
@@ -24510,7 +24599,7 @@
       <c r="Z863" s="6"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="10"/>
+      <c r="A864" s="11"/>
       <c r="B864" s="6"/>
       <c r="C864" s="6"/>
       <c r="D864" s="6"/>
@@ -24538,7 +24627,7 @@
       <c r="Z864" s="6"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="10"/>
+      <c r="A865" s="11"/>
       <c r="B865" s="6"/>
       <c r="C865" s="6"/>
       <c r="D865" s="6"/>
@@ -24566,7 +24655,7 @@
       <c r="Z865" s="6"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="10"/>
+      <c r="A866" s="11"/>
       <c r="B866" s="6"/>
       <c r="C866" s="6"/>
       <c r="D866" s="6"/>
@@ -24594,7 +24683,7 @@
       <c r="Z866" s="6"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="10"/>
+      <c r="A867" s="11"/>
       <c r="B867" s="6"/>
       <c r="C867" s="6"/>
       <c r="D867" s="6"/>
@@ -24622,7 +24711,7 @@
       <c r="Z867" s="6"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="10"/>
+      <c r="A868" s="11"/>
       <c r="B868" s="6"/>
       <c r="C868" s="6"/>
       <c r="D868" s="6"/>
@@ -24650,7 +24739,7 @@
       <c r="Z868" s="6"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="10"/>
+      <c r="A869" s="11"/>
       <c r="B869" s="6"/>
       <c r="C869" s="6"/>
       <c r="D869" s="6"/>
@@ -24678,7 +24767,7 @@
       <c r="Z869" s="6"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="10"/>
+      <c r="A870" s="11"/>
       <c r="B870" s="6"/>
       <c r="C870" s="6"/>
       <c r="D870" s="6"/>
@@ -24706,7 +24795,7 @@
       <c r="Z870" s="6"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="10"/>
+      <c r="A871" s="11"/>
       <c r="B871" s="6"/>
       <c r="C871" s="6"/>
       <c r="D871" s="6"/>
@@ -24734,7 +24823,7 @@
       <c r="Z871" s="6"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="10"/>
+      <c r="A872" s="11"/>
       <c r="B872" s="6"/>
       <c r="C872" s="6"/>
       <c r="D872" s="6"/>
@@ -24762,7 +24851,7 @@
       <c r="Z872" s="6"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="10"/>
+      <c r="A873" s="11"/>
       <c r="B873" s="6"/>
       <c r="C873" s="6"/>
       <c r="D873" s="6"/>
@@ -24790,7 +24879,7 @@
       <c r="Z873" s="6"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="10"/>
+      <c r="A874" s="11"/>
       <c r="B874" s="6"/>
       <c r="C874" s="6"/>
       <c r="D874" s="6"/>
@@ -24818,7 +24907,7 @@
       <c r="Z874" s="6"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="10"/>
+      <c r="A875" s="11"/>
       <c r="B875" s="6"/>
       <c r="C875" s="6"/>
       <c r="D875" s="6"/>
@@ -24846,7 +24935,7 @@
       <c r="Z875" s="6"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="10"/>
+      <c r="A876" s="11"/>
       <c r="B876" s="6"/>
       <c r="C876" s="6"/>
       <c r="D876" s="6"/>
@@ -24874,7 +24963,7 @@
       <c r="Z876" s="6"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="10"/>
+      <c r="A877" s="11"/>
       <c r="B877" s="6"/>
       <c r="C877" s="6"/>
       <c r="D877" s="6"/>
@@ -24902,7 +24991,7 @@
       <c r="Z877" s="6"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="10"/>
+      <c r="A878" s="11"/>
       <c r="B878" s="6"/>
       <c r="C878" s="6"/>
       <c r="D878" s="6"/>
@@ -24930,7 +25019,7 @@
       <c r="Z878" s="6"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="10"/>
+      <c r="A879" s="11"/>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
       <c r="D879" s="6"/>
@@ -24958,7 +25047,7 @@
       <c r="Z879" s="6"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="10"/>
+      <c r="A880" s="11"/>
       <c r="B880" s="6"/>
       <c r="C880" s="6"/>
       <c r="D880" s="6"/>
@@ -24986,7 +25075,7 @@
       <c r="Z880" s="6"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="10"/>
+      <c r="A881" s="11"/>
       <c r="B881" s="6"/>
       <c r="C881" s="6"/>
       <c r="D881" s="6"/>
@@ -25014,7 +25103,7 @@
       <c r="Z881" s="6"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="10"/>
+      <c r="A882" s="11"/>
       <c r="B882" s="6"/>
       <c r="C882" s="6"/>
       <c r="D882" s="6"/>
@@ -25042,7 +25131,7 @@
       <c r="Z882" s="6"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="10"/>
+      <c r="A883" s="11"/>
       <c r="B883" s="6"/>
       <c r="C883" s="6"/>
       <c r="D883" s="6"/>
@@ -25070,7 +25159,7 @@
       <c r="Z883" s="6"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="10"/>
+      <c r="A884" s="11"/>
       <c r="B884" s="6"/>
       <c r="C884" s="6"/>
       <c r="D884" s="6"/>
@@ -25098,7 +25187,7 @@
       <c r="Z884" s="6"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="10"/>
+      <c r="A885" s="11"/>
       <c r="B885" s="6"/>
       <c r="C885" s="6"/>
       <c r="D885" s="6"/>
@@ -25126,7 +25215,7 @@
       <c r="Z885" s="6"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="10"/>
+      <c r="A886" s="11"/>
       <c r="B886" s="6"/>
       <c r="C886" s="6"/>
       <c r="D886" s="6"/>
@@ -25154,7 +25243,7 @@
       <c r="Z886" s="6"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="10"/>
+      <c r="A887" s="11"/>
       <c r="B887" s="6"/>
       <c r="C887" s="6"/>
       <c r="D887" s="6"/>
@@ -25182,7 +25271,7 @@
       <c r="Z887" s="6"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="10"/>
+      <c r="A888" s="11"/>
       <c r="B888" s="6"/>
       <c r="C888" s="6"/>
       <c r="D888" s="6"/>
@@ -25210,7 +25299,7 @@
       <c r="Z888" s="6"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="10"/>
+      <c r="A889" s="11"/>
       <c r="B889" s="6"/>
       <c r="C889" s="6"/>
       <c r="D889" s="6"/>
@@ -25238,7 +25327,7 @@
       <c r="Z889" s="6"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="10"/>
+      <c r="A890" s="11"/>
       <c r="B890" s="6"/>
       <c r="C890" s="6"/>
       <c r="D890" s="6"/>
@@ -25266,7 +25355,7 @@
       <c r="Z890" s="6"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="10"/>
+      <c r="A891" s="11"/>
       <c r="B891" s="6"/>
       <c r="C891" s="6"/>
       <c r="D891" s="6"/>
@@ -25294,7 +25383,7 @@
       <c r="Z891" s="6"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="10"/>
+      <c r="A892" s="11"/>
       <c r="B892" s="6"/>
       <c r="C892" s="6"/>
       <c r="D892" s="6"/>
@@ -25322,7 +25411,7 @@
       <c r="Z892" s="6"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="10"/>
+      <c r="A893" s="11"/>
       <c r="B893" s="6"/>
       <c r="C893" s="6"/>
       <c r="D893" s="6"/>
@@ -25350,7 +25439,7 @@
       <c r="Z893" s="6"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="10"/>
+      <c r="A894" s="11"/>
       <c r="B894" s="6"/>
       <c r="C894" s="6"/>
       <c r="D894" s="6"/>
@@ -25378,7 +25467,7 @@
       <c r="Z894" s="6"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="10"/>
+      <c r="A895" s="11"/>
       <c r="B895" s="6"/>
       <c r="C895" s="6"/>
       <c r="D895" s="6"/>
@@ -25406,7 +25495,7 @@
       <c r="Z895" s="6"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="10"/>
+      <c r="A896" s="11"/>
       <c r="B896" s="6"/>
       <c r="C896" s="6"/>
       <c r="D896" s="6"/>
@@ -25434,7 +25523,7 @@
       <c r="Z896" s="6"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="10"/>
+      <c r="A897" s="11"/>
       <c r="B897" s="6"/>
       <c r="C897" s="6"/>
       <c r="D897" s="6"/>
@@ -25462,7 +25551,7 @@
       <c r="Z897" s="6"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="10"/>
+      <c r="A898" s="11"/>
       <c r="B898" s="6"/>
       <c r="C898" s="6"/>
       <c r="D898" s="6"/>
@@ -25490,7 +25579,7 @@
       <c r="Z898" s="6"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="10"/>
+      <c r="A899" s="11"/>
       <c r="B899" s="6"/>
       <c r="C899" s="6"/>
       <c r="D899" s="6"/>
@@ -25518,7 +25607,7 @@
       <c r="Z899" s="6"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="10"/>
+      <c r="A900" s="11"/>
       <c r="B900" s="6"/>
       <c r="C900" s="6"/>
       <c r="D900" s="6"/>
@@ -25546,7 +25635,7 @@
       <c r="Z900" s="6"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="10"/>
+      <c r="A901" s="11"/>
       <c r="B901" s="6"/>
       <c r="C901" s="6"/>
       <c r="D901" s="6"/>
@@ -25574,7 +25663,7 @@
       <c r="Z901" s="6"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="10"/>
+      <c r="A902" s="11"/>
       <c r="B902" s="6"/>
       <c r="C902" s="6"/>
       <c r="D902" s="6"/>
@@ -25602,7 +25691,7 @@
       <c r="Z902" s="6"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="10"/>
+      <c r="A903" s="11"/>
       <c r="B903" s="6"/>
       <c r="C903" s="6"/>
       <c r="D903" s="6"/>
@@ -25630,7 +25719,7 @@
       <c r="Z903" s="6"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="10"/>
+      <c r="A904" s="11"/>
       <c r="B904" s="6"/>
       <c r="C904" s="6"/>
       <c r="D904" s="6"/>
@@ -25658,7 +25747,7 @@
       <c r="Z904" s="6"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="10"/>
+      <c r="A905" s="11"/>
       <c r="B905" s="6"/>
       <c r="C905" s="6"/>
       <c r="D905" s="6"/>
@@ -25686,7 +25775,7 @@
       <c r="Z905" s="6"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="10"/>
+      <c r="A906" s="11"/>
       <c r="B906" s="6"/>
       <c r="C906" s="6"/>
       <c r="D906" s="6"/>
@@ -25714,7 +25803,7 @@
       <c r="Z906" s="6"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="10"/>
+      <c r="A907" s="11"/>
       <c r="B907" s="6"/>
       <c r="C907" s="6"/>
       <c r="D907" s="6"/>
@@ -25742,7 +25831,7 @@
       <c r="Z907" s="6"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="10"/>
+      <c r="A908" s="11"/>
       <c r="B908" s="6"/>
       <c r="C908" s="6"/>
       <c r="D908" s="6"/>
@@ -25770,7 +25859,7 @@
       <c r="Z908" s="6"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="10"/>
+      <c r="A909" s="11"/>
       <c r="B909" s="6"/>
       <c r="C909" s="6"/>
       <c r="D909" s="6"/>
@@ -25798,7 +25887,7 @@
       <c r="Z909" s="6"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="10"/>
+      <c r="A910" s="11"/>
       <c r="B910" s="6"/>
       <c r="C910" s="6"/>
       <c r="D910" s="6"/>
@@ -25826,7 +25915,7 @@
       <c r="Z910" s="6"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="10"/>
+      <c r="A911" s="11"/>
       <c r="B911" s="6"/>
       <c r="C911" s="6"/>
       <c r="D911" s="6"/>
@@ -25854,7 +25943,7 @@
       <c r="Z911" s="6"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="10"/>
+      <c r="A912" s="11"/>
       <c r="B912" s="6"/>
       <c r="C912" s="6"/>
       <c r="D912" s="6"/>
@@ -25882,7 +25971,7 @@
       <c r="Z912" s="6"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="10"/>
+      <c r="A913" s="11"/>
       <c r="B913" s="6"/>
       <c r="C913" s="6"/>
       <c r="D913" s="6"/>
@@ -25910,7 +25999,7 @@
       <c r="Z913" s="6"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="10"/>
+      <c r="A914" s="11"/>
       <c r="B914" s="6"/>
       <c r="C914" s="6"/>
       <c r="D914" s="6"/>
@@ -25938,7 +26027,7 @@
       <c r="Z914" s="6"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="10"/>
+      <c r="A915" s="11"/>
       <c r="B915" s="6"/>
       <c r="C915" s="6"/>
       <c r="D915" s="6"/>
@@ -25966,7 +26055,7 @@
       <c r="Z915" s="6"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="10"/>
+      <c r="A916" s="11"/>
       <c r="B916" s="6"/>
       <c r="C916" s="6"/>
       <c r="D916" s="6"/>
@@ -25994,7 +26083,7 @@
       <c r="Z916" s="6"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="10"/>
+      <c r="A917" s="11"/>
       <c r="B917" s="6"/>
       <c r="C917" s="6"/>
       <c r="D917" s="6"/>
@@ -26022,7 +26111,7 @@
       <c r="Z917" s="6"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="10"/>
+      <c r="A918" s="11"/>
       <c r="B918" s="6"/>
       <c r="C918" s="6"/>
       <c r="D918" s="6"/>
@@ -26050,7 +26139,7 @@
       <c r="Z918" s="6"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="10"/>
+      <c r="A919" s="11"/>
       <c r="B919" s="6"/>
       <c r="C919" s="6"/>
       <c r="D919" s="6"/>
@@ -26078,7 +26167,7 @@
       <c r="Z919" s="6"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="10"/>
+      <c r="A920" s="11"/>
       <c r="B920" s="6"/>
       <c r="C920" s="6"/>
       <c r="D920" s="6"/>
@@ -26106,7 +26195,7 @@
       <c r="Z920" s="6"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="10"/>
+      <c r="A921" s="11"/>
       <c r="B921" s="6"/>
       <c r="C921" s="6"/>
       <c r="D921" s="6"/>
@@ -26134,7 +26223,7 @@
       <c r="Z921" s="6"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="10"/>
+      <c r="A922" s="11"/>
       <c r="B922" s="6"/>
       <c r="C922" s="6"/>
       <c r="D922" s="6"/>
@@ -26162,7 +26251,7 @@
       <c r="Z922" s="6"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="10"/>
+      <c r="A923" s="11"/>
       <c r="B923" s="6"/>
       <c r="C923" s="6"/>
       <c r="D923" s="6"/>
@@ -26190,7 +26279,7 @@
       <c r="Z923" s="6"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="10"/>
+      <c r="A924" s="11"/>
       <c r="B924" s="6"/>
       <c r="C924" s="6"/>
       <c r="D924" s="6"/>
@@ -26218,7 +26307,7 @@
       <c r="Z924" s="6"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="10"/>
+      <c r="A925" s="11"/>
       <c r="B925" s="6"/>
       <c r="C925" s="6"/>
       <c r="D925" s="6"/>
@@ -26246,7 +26335,7 @@
       <c r="Z925" s="6"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="10"/>
+      <c r="A926" s="11"/>
       <c r="B926" s="6"/>
       <c r="C926" s="6"/>
       <c r="D926" s="6"/>
@@ -26274,7 +26363,7 @@
       <c r="Z926" s="6"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="10"/>
+      <c r="A927" s="11"/>
       <c r="B927" s="6"/>
       <c r="C927" s="6"/>
       <c r="D927" s="6"/>
@@ -26302,7 +26391,7 @@
       <c r="Z927" s="6"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="10"/>
+      <c r="A928" s="11"/>
       <c r="B928" s="6"/>
       <c r="C928" s="6"/>
       <c r="D928" s="6"/>
@@ -26330,7 +26419,7 @@
       <c r="Z928" s="6"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="10"/>
+      <c r="A929" s="11"/>
       <c r="B929" s="6"/>
       <c r="C929" s="6"/>
       <c r="D929" s="6"/>
@@ -26358,7 +26447,7 @@
       <c r="Z929" s="6"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="10"/>
+      <c r="A930" s="11"/>
       <c r="B930" s="6"/>
       <c r="C930" s="6"/>
       <c r="D930" s="6"/>
@@ -26386,7 +26475,7 @@
       <c r="Z930" s="6"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="10"/>
+      <c r="A931" s="11"/>
       <c r="B931" s="6"/>
       <c r="C931" s="6"/>
       <c r="D931" s="6"/>
@@ -26414,7 +26503,7 @@
       <c r="Z931" s="6"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="10"/>
+      <c r="A932" s="11"/>
       <c r="B932" s="6"/>
       <c r="C932" s="6"/>
       <c r="D932" s="6"/>
@@ -26442,7 +26531,7 @@
       <c r="Z932" s="6"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="10"/>
+      <c r="A933" s="11"/>
       <c r="B933" s="6"/>
       <c r="C933" s="6"/>
       <c r="D933" s="6"/>
@@ -26470,7 +26559,7 @@
       <c r="Z933" s="6"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="10"/>
+      <c r="A934" s="11"/>
       <c r="B934" s="6"/>
       <c r="C934" s="6"/>
       <c r="D934" s="6"/>
@@ -26498,7 +26587,7 @@
       <c r="Z934" s="6"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="10"/>
+      <c r="A935" s="11"/>
       <c r="B935" s="6"/>
       <c r="C935" s="6"/>
       <c r="D935" s="6"/>
@@ -26526,7 +26615,7 @@
       <c r="Z935" s="6"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="10"/>
+      <c r="A936" s="11"/>
       <c r="B936" s="6"/>
       <c r="C936" s="6"/>
       <c r="D936" s="6"/>
@@ -26554,7 +26643,7 @@
       <c r="Z936" s="6"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="10"/>
+      <c r="A937" s="11"/>
       <c r="B937" s="6"/>
       <c r="C937" s="6"/>
       <c r="D937" s="6"/>
@@ -26582,7 +26671,7 @@
       <c r="Z937" s="6"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="10"/>
+      <c r="A938" s="11"/>
       <c r="B938" s="6"/>
       <c r="C938" s="6"/>
       <c r="D938" s="6"/>
@@ -26610,7 +26699,7 @@
       <c r="Z938" s="6"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="10"/>
+      <c r="A939" s="11"/>
       <c r="B939" s="6"/>
       <c r="C939" s="6"/>
       <c r="D939" s="6"/>
@@ -26638,7 +26727,7 @@
       <c r="Z939" s="6"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="10"/>
+      <c r="A940" s="11"/>
       <c r="B940" s="6"/>
       <c r="C940" s="6"/>
       <c r="D940" s="6"/>
@@ -26666,7 +26755,7 @@
       <c r="Z940" s="6"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="10"/>
+      <c r="A941" s="11"/>
       <c r="B941" s="6"/>
       <c r="C941" s="6"/>
       <c r="D941" s="6"/>
@@ -26694,7 +26783,7 @@
       <c r="Z941" s="6"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="10"/>
+      <c r="A942" s="11"/>
       <c r="B942" s="6"/>
       <c r="C942" s="6"/>
       <c r="D942" s="6"/>
@@ -26722,7 +26811,7 @@
       <c r="Z942" s="6"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="10"/>
+      <c r="A943" s="11"/>
       <c r="B943" s="6"/>
       <c r="C943" s="6"/>
       <c r="D943" s="6"/>
@@ -26750,7 +26839,7 @@
       <c r="Z943" s="6"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="10"/>
+      <c r="A944" s="11"/>
       <c r="B944" s="6"/>
       <c r="C944" s="6"/>
       <c r="D944" s="6"/>
@@ -26778,7 +26867,7 @@
       <c r="Z944" s="6"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="10"/>
+      <c r="A945" s="11"/>
       <c r="B945" s="6"/>
       <c r="C945" s="6"/>
       <c r="D945" s="6"/>
@@ -26806,7 +26895,7 @@
       <c r="Z945" s="6"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="10"/>
+      <c r="A946" s="11"/>
       <c r="B946" s="6"/>
       <c r="C946" s="6"/>
       <c r="D946" s="6"/>
@@ -26834,7 +26923,7 @@
       <c r="Z946" s="6"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="10"/>
+      <c r="A947" s="11"/>
       <c r="B947" s="6"/>
       <c r="C947" s="6"/>
       <c r="D947" s="6"/>
@@ -26862,7 +26951,7 @@
       <c r="Z947" s="6"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="10"/>
+      <c r="A948" s="11"/>
       <c r="B948" s="6"/>
       <c r="C948" s="6"/>
       <c r="D948" s="6"/>
@@ -26890,7 +26979,7 @@
       <c r="Z948" s="6"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="10"/>
+      <c r="A949" s="11"/>
       <c r="B949" s="6"/>
       <c r="C949" s="6"/>
       <c r="D949" s="6"/>
@@ -26918,7 +27007,7 @@
       <c r="Z949" s="6"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="10"/>
+      <c r="A950" s="11"/>
       <c r="B950" s="6"/>
       <c r="C950" s="6"/>
       <c r="D950" s="6"/>
@@ -26946,7 +27035,7 @@
       <c r="Z950" s="6"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="10"/>
+      <c r="A951" s="11"/>
       <c r="B951" s="6"/>
       <c r="C951" s="6"/>
       <c r="D951" s="6"/>
@@ -26974,7 +27063,7 @@
       <c r="Z951" s="6"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="10"/>
+      <c r="A952" s="11"/>
       <c r="B952" s="6"/>
       <c r="C952" s="6"/>
       <c r="D952" s="6"/>
@@ -27002,7 +27091,7 @@
       <c r="Z952" s="6"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="10"/>
+      <c r="A953" s="11"/>
       <c r="B953" s="6"/>
       <c r="C953" s="6"/>
       <c r="D953" s="6"/>
@@ -27030,7 +27119,7 @@
       <c r="Z953" s="6"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="10"/>
+      <c r="A954" s="11"/>
       <c r="B954" s="6"/>
       <c r="C954" s="6"/>
       <c r="D954" s="6"/>
@@ -27058,7 +27147,7 @@
       <c r="Z954" s="6"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="10"/>
+      <c r="A955" s="11"/>
       <c r="B955" s="6"/>
       <c r="C955" s="6"/>
       <c r="D955" s="6"/>
@@ -27086,7 +27175,7 @@
       <c r="Z955" s="6"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="10"/>
+      <c r="A956" s="11"/>
       <c r="B956" s="6"/>
       <c r="C956" s="6"/>
       <c r="D956" s="6"/>
@@ -27114,7 +27203,7 @@
       <c r="Z956" s="6"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="10"/>
+      <c r="A957" s="11"/>
       <c r="B957" s="6"/>
       <c r="C957" s="6"/>
       <c r="D957" s="6"/>
@@ -27142,7 +27231,7 @@
       <c r="Z957" s="6"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="10"/>
+      <c r="A958" s="11"/>
       <c r="B958" s="6"/>
       <c r="C958" s="6"/>
       <c r="D958" s="6"/>
@@ -27170,7 +27259,7 @@
       <c r="Z958" s="6"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="10"/>
+      <c r="A959" s="11"/>
       <c r="B959" s="6"/>
       <c r="C959" s="6"/>
       <c r="D959" s="6"/>
@@ -27198,7 +27287,7 @@
       <c r="Z959" s="6"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="10"/>
+      <c r="A960" s="11"/>
       <c r="B960" s="6"/>
       <c r="C960" s="6"/>
       <c r="D960" s="6"/>
@@ -27226,7 +27315,7 @@
       <c r="Z960" s="6"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="10"/>
+      <c r="A961" s="11"/>
       <c r="B961" s="6"/>
       <c r="C961" s="6"/>
       <c r="D961" s="6"/>
@@ -27254,7 +27343,7 @@
       <c r="Z961" s="6"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="10"/>
+      <c r="A962" s="11"/>
       <c r="B962" s="6"/>
       <c r="C962" s="6"/>
       <c r="D962" s="6"/>
@@ -27282,7 +27371,7 @@
       <c r="Z962" s="6"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="10"/>
+      <c r="A963" s="11"/>
       <c r="B963" s="6"/>
       <c r="C963" s="6"/>
       <c r="D963" s="6"/>
@@ -27310,7 +27399,7 @@
       <c r="Z963" s="6"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="10"/>
+      <c r="A964" s="11"/>
       <c r="B964" s="6"/>
       <c r="C964" s="6"/>
       <c r="D964" s="6"/>
@@ -27338,7 +27427,7 @@
       <c r="Z964" s="6"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="10"/>
+      <c r="A965" s="11"/>
       <c r="B965" s="6"/>
       <c r="C965" s="6"/>
       <c r="D965" s="6"/>
@@ -27366,7 +27455,7 @@
       <c r="Z965" s="6"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="10"/>
+      <c r="A966" s="11"/>
       <c r="B966" s="6"/>
       <c r="C966" s="6"/>
       <c r="D966" s="6"/>
@@ -27394,7 +27483,7 @@
       <c r="Z966" s="6"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="10"/>
+      <c r="A967" s="11"/>
       <c r="B967" s="6"/>
       <c r="C967" s="6"/>
       <c r="D967" s="6"/>
@@ -27422,7 +27511,7 @@
       <c r="Z967" s="6"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="10"/>
+      <c r="A968" s="11"/>
       <c r="B968" s="6"/>
       <c r="C968" s="6"/>
       <c r="D968" s="6"/>
@@ -27450,7 +27539,7 @@
       <c r="Z968" s="6"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="10"/>
+      <c r="A969" s="11"/>
       <c r="B969" s="6"/>
       <c r="C969" s="6"/>
       <c r="D969" s="6"/>
@@ -27478,7 +27567,7 @@
       <c r="Z969" s="6"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="10"/>
+      <c r="A970" s="11"/>
       <c r="B970" s="6"/>
       <c r="C970" s="6"/>
       <c r="D970" s="6"/>
@@ -27506,7 +27595,7 @@
       <c r="Z970" s="6"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="10"/>
+      <c r="A971" s="11"/>
       <c r="B971" s="6"/>
       <c r="C971" s="6"/>
       <c r="D971" s="6"/>
@@ -27534,7 +27623,7 @@
       <c r="Z971" s="6"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="10"/>
+      <c r="A972" s="11"/>
       <c r="B972" s="6"/>
       <c r="C972" s="6"/>
       <c r="D972" s="6"/>
@@ -27562,7 +27651,7 @@
       <c r="Z972" s="6"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="10"/>
+      <c r="A973" s="11"/>
       <c r="B973" s="6"/>
       <c r="C973" s="6"/>
       <c r="D973" s="6"/>
@@ -27590,7 +27679,7 @@
       <c r="Z973" s="6"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="10"/>
+      <c r="A974" s="11"/>
       <c r="B974" s="6"/>
       <c r="C974" s="6"/>
       <c r="D974" s="6"/>
@@ -27618,7 +27707,7 @@
       <c r="Z974" s="6"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="10"/>
+      <c r="A975" s="11"/>
       <c r="B975" s="6"/>
       <c r="C975" s="6"/>
       <c r="D975" s="6"/>
@@ -27646,7 +27735,7 @@
       <c r="Z975" s="6"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="10"/>
+      <c r="A976" s="11"/>
       <c r="B976" s="6"/>
       <c r="C976" s="6"/>
       <c r="D976" s="6"/>
@@ -27674,7 +27763,7 @@
       <c r="Z976" s="6"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="10"/>
+      <c r="A977" s="11"/>
       <c r="B977" s="6"/>
       <c r="C977" s="6"/>
       <c r="D977" s="6"/>
@@ -27702,7 +27791,7 @@
       <c r="Z977" s="6"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="10"/>
+      <c r="A978" s="11"/>
       <c r="B978" s="6"/>
       <c r="C978" s="6"/>
       <c r="D978" s="6"/>
@@ -27730,7 +27819,7 @@
       <c r="Z978" s="6"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="10"/>
+      <c r="A979" s="11"/>
       <c r="B979" s="6"/>
       <c r="C979" s="6"/>
       <c r="D979" s="6"/>
@@ -27758,7 +27847,7 @@
       <c r="Z979" s="6"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="10"/>
+      <c r="A980" s="11"/>
       <c r="B980" s="6"/>
       <c r="C980" s="6"/>
       <c r="D980" s="6"/>
@@ -27786,7 +27875,7 @@
       <c r="Z980" s="6"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="10"/>
+      <c r="A981" s="11"/>
       <c r="B981" s="6"/>
       <c r="C981" s="6"/>
       <c r="D981" s="6"/>
@@ -27814,7 +27903,7 @@
       <c r="Z981" s="6"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="10"/>
+      <c r="A982" s="11"/>
       <c r="B982" s="6"/>
       <c r="C982" s="6"/>
       <c r="D982" s="6"/>
@@ -27842,7 +27931,7 @@
       <c r="Z982" s="6"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="10"/>
+      <c r="A983" s="11"/>
       <c r="B983" s="6"/>
       <c r="C983" s="6"/>
       <c r="D983" s="6"/>
@@ -27870,7 +27959,7 @@
       <c r="Z983" s="6"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="10"/>
+      <c r="A984" s="11"/>
       <c r="B984" s="6"/>
       <c r="C984" s="6"/>
       <c r="D984" s="6"/>
@@ -27898,7 +27987,7 @@
       <c r="Z984" s="6"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="10"/>
+      <c r="A985" s="11"/>
       <c r="B985" s="6"/>
       <c r="C985" s="6"/>
       <c r="D985" s="6"/>
@@ -27926,7 +28015,7 @@
       <c r="Z985" s="6"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="10"/>
+      <c r="A986" s="11"/>
       <c r="B986" s="6"/>
       <c r="C986" s="6"/>
       <c r="D986" s="6"/>
@@ -27954,7 +28043,7 @@
       <c r="Z986" s="6"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="10"/>
+      <c r="A987" s="11"/>
       <c r="B987" s="6"/>
       <c r="C987" s="6"/>
       <c r="D987" s="6"/>
@@ -27982,7 +28071,7 @@
       <c r="Z987" s="6"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="10"/>
+      <c r="A988" s="11"/>
       <c r="B988" s="6"/>
       <c r="C988" s="6"/>
       <c r="D988" s="6"/>
@@ -28010,7 +28099,7 @@
       <c r="Z988" s="6"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="10"/>
+      <c r="A989" s="11"/>
       <c r="B989" s="6"/>
       <c r="C989" s="6"/>
       <c r="D989" s="6"/>
@@ -28038,7 +28127,7 @@
       <c r="Z989" s="6"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="10"/>
+      <c r="A990" s="11"/>
       <c r="B990" s="6"/>
       <c r="C990" s="6"/>
       <c r="D990" s="6"/>
@@ -28066,7 +28155,7 @@
       <c r="Z990" s="6"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="10"/>
+      <c r="A991" s="11"/>
       <c r="B991" s="6"/>
       <c r="C991" s="6"/>
       <c r="D991" s="6"/>
@@ -28094,7 +28183,7 @@
       <c r="Z991" s="6"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="10"/>
+      <c r="A992" s="11"/>
       <c r="B992" s="6"/>
       <c r="C992" s="6"/>
       <c r="D992" s="6"/>
@@ -28122,7 +28211,7 @@
       <c r="Z992" s="6"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="10"/>
+      <c r="A993" s="11"/>
       <c r="B993" s="6"/>
       <c r="C993" s="6"/>
       <c r="D993" s="6"/>
@@ -28150,7 +28239,7 @@
       <c r="Z993" s="6"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="10"/>
+      <c r="A994" s="11"/>
       <c r="B994" s="6"/>
       <c r="C994" s="6"/>
       <c r="D994" s="6"/>
@@ -28178,7 +28267,7 @@
       <c r="Z994" s="6"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="10"/>
+      <c r="A995" s="11"/>
       <c r="B995" s="6"/>
       <c r="C995" s="6"/>
       <c r="D995" s="6"/>
@@ -28206,7 +28295,7 @@
       <c r="Z995" s="6"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="10"/>
+      <c r="A996" s="11"/>
       <c r="B996" s="6"/>
       <c r="C996" s="6"/>
       <c r="D996" s="6"/>
@@ -28234,7 +28323,7 @@
       <c r="Z996" s="6"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="10"/>
+      <c r="A997" s="11"/>
       <c r="B997" s="6"/>
       <c r="C997" s="6"/>
       <c r="D997" s="6"/>
@@ -28262,7 +28351,7 @@
       <c r="Z997" s="6"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="10"/>
+      <c r="A998" s="11"/>
       <c r="B998" s="6"/>
       <c r="C998" s="6"/>
       <c r="D998" s="6"/>
@@ -28290,7 +28379,7 @@
       <c r="Z998" s="6"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="10"/>
+      <c r="A999" s="11"/>
       <c r="B999" s="6"/>
       <c r="C999" s="6"/>
       <c r="D999" s="6"/>
@@ -28317,34 +28406,7 @@
       <c r="Y999" s="6"/>
       <c r="Z999" s="6"/>
     </row>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="10"/>
-      <c r="B1000" s="6"/>
-      <c r="C1000" s="6"/>
-      <c r="D1000" s="6"/>
-      <c r="E1000" s="6"/>
-      <c r="F1000" s="6"/>
-      <c r="G1000" s="6"/>
-      <c r="H1000" s="6"/>
-      <c r="I1000" s="6"/>
-      <c r="J1000" s="6"/>
-      <c r="K1000" s="6"/>
-      <c r="L1000" s="6"/>
-      <c r="M1000" s="6"/>
-      <c r="N1000" s="6"/>
-      <c r="O1000" s="6"/>
-      <c r="P1000" s="6"/>
-      <c r="Q1000" s="6"/>
-      <c r="R1000" s="6"/>
-      <c r="S1000" s="6"/>
-      <c r="T1000" s="6"/>
-      <c r="U1000" s="6"/>
-      <c r="V1000" s="6"/>
-      <c r="W1000" s="6"/>
-      <c r="X1000" s="6"/>
-      <c r="Y1000" s="6"/>
-      <c r="Z1000" s="6"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
